--- a/020-内部設計/023-検索機能/DAO・DTO/クラス仕様書_CategoryDTO.xlsx
+++ b/020-内部設計/023-検索機能/DAO・DTO/クラス仕様書_CategoryDTO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C165DA-8920-462E-826E-EF771893AEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53985BB-22BB-4DB7-8B27-4E83135A7176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -1165,14 +1165,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1183,8 +1186,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1192,16 +1204,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,17 +1234,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1241,36 +1271,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1306,10 +1306,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:IY28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21:AZ21"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1643,85 +1643,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="89" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="94" t="s">
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="89" t="s">
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="94" t="s">
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="94"/>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="89" t="s">
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="94" t="s">
+      <c r="AR1" s="94"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="94"/>
-      <c r="AZ1" s="94"/>
-      <c r="BA1" s="89" t="s">
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="96">
+      <c r="BB1" s="94"/>
+      <c r="BC1" s="94"/>
+      <c r="BD1" s="100">
         <v>45910</v>
       </c>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
+      <c r="BE1" s="100"/>
+      <c r="BF1" s="100"/>
+      <c r="BG1" s="100"/>
+      <c r="BH1" s="100"/>
+      <c r="BI1" s="100"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1921,80 +1921,80 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="89" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="89" t="s">
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="94" t="str">
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="83" t="str">
         <f>G6</f>
         <v>CategoryDTO</v>
       </c>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="89" t="s">
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="89" t="s">
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="96">
+      <c r="BB2" s="94"/>
+      <c r="BC2" s="94"/>
+      <c r="BD2" s="100">
         <v>45912</v>
       </c>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="96"/>
-      <c r="BI2" s="96"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="100"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2194,410 +2194,410 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="93"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="98"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="92"/>
-      <c r="BB5" s="92"/>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="92"/>
-      <c r="BG5" s="92"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="93"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="97"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
+      <c r="BI5" s="98"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="92"/>
-      <c r="AH6" s="92"/>
-      <c r="AI6" s="92"/>
-      <c r="AJ6" s="92"/>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="92"/>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="92"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="92"/>
-      <c r="BA6" s="92"/>
-      <c r="BB6" s="92"/>
-      <c r="BC6" s="92"/>
-      <c r="BD6" s="92"/>
-      <c r="BE6" s="92"/>
-      <c r="BF6" s="92"/>
-      <c r="BG6" s="92"/>
-      <c r="BH6" s="92"/>
-      <c r="BI6" s="93"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="97"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="97"/>
+      <c r="BB6" s="97"/>
+      <c r="BC6" s="97"/>
+      <c r="BD6" s="97"/>
+      <c r="BE6" s="97"/>
+      <c r="BF6" s="97"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="98"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="92"/>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="92"/>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="92"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="92"/>
-      <c r="BE7" s="92"/>
-      <c r="BF7" s="92"/>
-      <c r="BG7" s="92"/>
-      <c r="BH7" s="92"/>
-      <c r="BI7" s="93"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="97"/>
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="97"/>
+      <c r="AN7" s="97"/>
+      <c r="AO7" s="97"/>
+      <c r="AP7" s="97"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="97"/>
+      <c r="AS7" s="97"/>
+      <c r="AT7" s="97"/>
+      <c r="AU7" s="97"/>
+      <c r="AV7" s="97"/>
+      <c r="AW7" s="97"/>
+      <c r="AX7" s="97"/>
+      <c r="AY7" s="97"/>
+      <c r="AZ7" s="97"/>
+      <c r="BA7" s="97"/>
+      <c r="BB7" s="97"/>
+      <c r="BC7" s="97"/>
+      <c r="BD7" s="97"/>
+      <c r="BE7" s="97"/>
+      <c r="BF7" s="97"/>
+      <c r="BG7" s="97"/>
+      <c r="BH7" s="97"/>
+      <c r="BI7" s="98"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="92"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="92"/>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="92"/>
-      <c r="BE8" s="92"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="93"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="97"/>
+      <c r="AJ8" s="97"/>
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="97"/>
+      <c r="AP8" s="97"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="97"/>
+      <c r="AS8" s="97"/>
+      <c r="AT8" s="97"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="97"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
+      <c r="BC8" s="97"/>
+      <c r="BD8" s="97"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="97"/>
+      <c r="BG8" s="97"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="98"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="91" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="90" t="s">
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="108" t="s">
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="95"/>
+      <c r="AJ9" s="95"/>
+      <c r="AK9" s="95"/>
+      <c r="AL9" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="AM9" s="108"/>
-      <c r="AN9" s="108"/>
-      <c r="AO9" s="108"/>
-      <c r="AP9" s="108"/>
-      <c r="AQ9" s="108"/>
-      <c r="AR9" s="108"/>
-      <c r="AS9" s="108"/>
-      <c r="AT9" s="108"/>
-      <c r="AU9" s="108"/>
-      <c r="AV9" s="108"/>
-      <c r="AW9" s="108"/>
-      <c r="AX9" s="108"/>
-      <c r="AY9" s="108"/>
-      <c r="AZ9" s="108"/>
-      <c r="BA9" s="108"/>
-      <c r="BB9" s="108"/>
-      <c r="BC9" s="108"/>
-      <c r="BD9" s="108"/>
-      <c r="BE9" s="108"/>
-      <c r="BF9" s="108"/>
-      <c r="BG9" s="108"/>
-      <c r="BH9" s="108"/>
-      <c r="BI9" s="108"/>
+      <c r="AM9" s="101"/>
+      <c r="AN9" s="101"/>
+      <c r="AO9" s="101"/>
+      <c r="AP9" s="101"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="101"/>
+      <c r="AS9" s="101"/>
+      <c r="AT9" s="101"/>
+      <c r="AU9" s="101"/>
+      <c r="AV9" s="101"/>
+      <c r="AW9" s="101"/>
+      <c r="AX9" s="101"/>
+      <c r="AY9" s="101"/>
+      <c r="AZ9" s="101"/>
+      <c r="BA9" s="101"/>
+      <c r="BB9" s="101"/>
+      <c r="BC9" s="101"/>
+      <c r="BD9" s="101"/>
+      <c r="BE9" s="101"/>
+      <c r="BF9" s="101"/>
+      <c r="BG9" s="101"/>
+      <c r="BH9" s="101"/>
+      <c r="BI9" s="101"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -2609,161 +2609,161 @@
       <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="76" t="s">
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="76" t="s">
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="78" t="s">
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78" t="s">
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
-      <c r="BA12" s="84" t="s">
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="BB12" s="76"/>
-      <c r="BC12" s="76"/>
-      <c r="BD12" s="76"/>
-      <c r="BE12" s="76"/>
-      <c r="BF12" s="76"/>
-      <c r="BG12" s="76"/>
-      <c r="BH12" s="77"/>
-      <c r="DI12" s="76" t="s">
+      <c r="BB12" s="85"/>
+      <c r="BC12" s="85"/>
+      <c r="BD12" s="85"/>
+      <c r="BE12" s="85"/>
+      <c r="BF12" s="85"/>
+      <c r="BG12" s="85"/>
+      <c r="BH12" s="86"/>
+      <c r="DI12" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="DJ12" s="76"/>
-      <c r="DK12" s="76"/>
-      <c r="DL12" s="76"/>
-      <c r="DM12" s="76"/>
-      <c r="DN12" s="76"/>
-      <c r="DO12" s="76"/>
-      <c r="DP12" s="77"/>
+      <c r="DJ12" s="85"/>
+      <c r="DK12" s="85"/>
+      <c r="DL12" s="85"/>
+      <c r="DM12" s="85"/>
+      <c r="DN12" s="85"/>
+      <c r="DO12" s="85"/>
+      <c r="DP12" s="86"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31">
         <v>1</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="79" t="s">
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="79" t="s">
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="82" t="s">
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82" t="s">
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="82"/>
-      <c r="AV13" s="82"/>
-      <c r="AW13" s="82"/>
-      <c r="AX13" s="82"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="82"/>
-      <c r="BA13" s="87" t="s">
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="90"/>
+      <c r="AM13" s="90"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="90"/>
+      <c r="BA13" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="BB13" s="85"/>
-      <c r="BC13" s="85"/>
-      <c r="BD13" s="85"/>
-      <c r="BE13" s="85"/>
-      <c r="BF13" s="85"/>
-      <c r="BG13" s="85"/>
-      <c r="BH13" s="86"/>
+      <c r="BB13" s="78"/>
+      <c r="BC13" s="78"/>
+      <c r="BD13" s="78"/>
+      <c r="BE13" s="78"/>
+      <c r="BF13" s="78"/>
+      <c r="BG13" s="78"/>
+      <c r="BH13" s="79"/>
       <c r="DI13" s="53"/>
       <c r="DJ13" s="53"/>
       <c r="DK13" s="53"/>
@@ -2777,84 +2777,84 @@
       <c r="B14" s="31">
         <v>2</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="79" t="s">
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="79" t="s">
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="82" t="s">
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="82" t="s">
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="82"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="82"/>
-      <c r="AW14" s="82"/>
-      <c r="AX14" s="82"/>
-      <c r="AY14" s="82"/>
-      <c r="AZ14" s="82"/>
-      <c r="BA14" s="87" t="s">
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="90"/>
+      <c r="AL14" s="90"/>
+      <c r="AM14" s="90"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="90"/>
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="90"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="90"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="90"/>
+      <c r="BA14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="BB14" s="85"/>
-      <c r="BC14" s="85"/>
-      <c r="BD14" s="85"/>
-      <c r="BE14" s="85"/>
-      <c r="BF14" s="85"/>
-      <c r="BG14" s="85"/>
-      <c r="BH14" s="86"/>
-      <c r="DI14" s="85"/>
-      <c r="DJ14" s="85"/>
-      <c r="DK14" s="85"/>
-      <c r="DL14" s="85"/>
-      <c r="DM14" s="85"/>
-      <c r="DN14" s="85"/>
-      <c r="DO14" s="85"/>
-      <c r="DP14" s="86"/>
+      <c r="BB14" s="78"/>
+      <c r="BC14" s="78"/>
+      <c r="BD14" s="78"/>
+      <c r="BE14" s="78"/>
+      <c r="BF14" s="78"/>
+      <c r="BG14" s="78"/>
+      <c r="BH14" s="79"/>
+      <c r="DI14" s="78"/>
+      <c r="DJ14" s="78"/>
+      <c r="DK14" s="78"/>
+      <c r="DL14" s="78"/>
+      <c r="DM14" s="78"/>
+      <c r="DN14" s="78"/>
+      <c r="DO14" s="78"/>
+      <c r="DP14" s="79"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -2865,155 +2865,155 @@
       <c r="B17" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="76" t="s">
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="76" t="s">
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="78" t="s">
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78" t="s">
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="83" t="s">
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AH17" s="83"/>
-      <c r="AI17" s="83"/>
-      <c r="AJ17" s="83"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="83"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="83"/>
-      <c r="AP17" s="83"/>
-      <c r="AQ17" s="83"/>
-      <c r="AR17" s="83"/>
-      <c r="AS17" s="83"/>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="83"/>
-      <c r="AV17" s="83"/>
-      <c r="AW17" s="83"/>
-      <c r="AX17" s="83"/>
-      <c r="AY17" s="83"/>
-      <c r="AZ17" s="84"/>
-      <c r="BA17" s="76" t="s">
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="87"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87"/>
+      <c r="AY17" s="87"/>
+      <c r="AZ17" s="88"/>
+      <c r="BA17" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="BB17" s="76"/>
-      <c r="BC17" s="76"/>
-      <c r="BD17" s="76"/>
-      <c r="BE17" s="76"/>
-      <c r="BF17" s="76"/>
-      <c r="BG17" s="76"/>
-      <c r="BH17" s="77"/>
+      <c r="BB17" s="85"/>
+      <c r="BC17" s="85"/>
+      <c r="BD17" s="85"/>
+      <c r="BE17" s="85"/>
+      <c r="BF17" s="85"/>
+      <c r="BG17" s="85"/>
+      <c r="BH17" s="86"/>
     </row>
     <row r="18" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="31">
         <v>1</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="79" t="s">
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="79" t="s">
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="81" t="s">
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81" t="s">
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AE18" s="81"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="88" t="s">
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="88"/>
-      <c r="AN18" s="88"/>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="88"/>
-      <c r="AQ18" s="88"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="88"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="88"/>
-      <c r="AV18" s="88"/>
-      <c r="AW18" s="88"/>
-      <c r="AX18" s="88"/>
-      <c r="AY18" s="88"/>
-      <c r="AZ18" s="87"/>
-      <c r="BA18" s="85" t="s">
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76"/>
+      <c r="AZ18" s="77"/>
+      <c r="BA18" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="BB18" s="85"/>
-      <c r="BC18" s="85"/>
-      <c r="BD18" s="85"/>
-      <c r="BE18" s="85"/>
-      <c r="BF18" s="85"/>
-      <c r="BG18" s="85"/>
-      <c r="BH18" s="86"/>
+      <c r="BB18" s="78"/>
+      <c r="BC18" s="78"/>
+      <c r="BD18" s="78"/>
+      <c r="BE18" s="78"/>
+      <c r="BF18" s="78"/>
+      <c r="BG18" s="78"/>
+      <c r="BH18" s="79"/>
     </row>
     <row r="20" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
@@ -3024,232 +3024,232 @@
       <c r="B21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="76" t="s">
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="76" t="s">
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="78" t="s">
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78" t="s">
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="83" t="s">
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AH21" s="83"/>
-      <c r="AI21" s="83"/>
-      <c r="AJ21" s="83"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="83"/>
-      <c r="AM21" s="83"/>
-      <c r="AN21" s="83"/>
-      <c r="AO21" s="83"/>
-      <c r="AP21" s="83"/>
-      <c r="AQ21" s="83"/>
-      <c r="AR21" s="83"/>
-      <c r="AS21" s="83"/>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="83"/>
-      <c r="AW21" s="83"/>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="83"/>
-      <c r="AZ21" s="84"/>
-      <c r="BA21" s="76" t="s">
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="87"/>
+      <c r="AU21" s="87"/>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="87"/>
+      <c r="AZ21" s="88"/>
+      <c r="BA21" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="BB21" s="76"/>
-      <c r="BC21" s="76"/>
-      <c r="BD21" s="76"/>
-      <c r="BE21" s="76"/>
-      <c r="BF21" s="76"/>
-      <c r="BG21" s="76"/>
-      <c r="BH21" s="77"/>
+      <c r="BB21" s="85"/>
+      <c r="BC21" s="85"/>
+      <c r="BD21" s="85"/>
+      <c r="BE21" s="85"/>
+      <c r="BF21" s="85"/>
+      <c r="BG21" s="85"/>
+      <c r="BH21" s="86"/>
     </row>
     <row r="22" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="31">
         <v>1</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="79" t="s">
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="79" t="s">
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="81" t="s">
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81" t="s">
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="105" t="s">
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="AH22" s="106"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="106"/>
-      <c r="AK22" s="106"/>
-      <c r="AL22" s="106"/>
-      <c r="AM22" s="106"/>
-      <c r="AN22" s="106"/>
-      <c r="AO22" s="106"/>
-      <c r="AP22" s="106"/>
-      <c r="AQ22" s="106"/>
-      <c r="AR22" s="106"/>
-      <c r="AS22" s="106"/>
-      <c r="AT22" s="106"/>
-      <c r="AU22" s="106"/>
-      <c r="AV22" s="106"/>
-      <c r="AW22" s="106"/>
-      <c r="AX22" s="106"/>
-      <c r="AY22" s="106"/>
-      <c r="AZ22" s="107"/>
-      <c r="BA22" s="85" t="s">
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="92"/>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="92"/>
+      <c r="AN22" s="92"/>
+      <c r="AO22" s="92"/>
+      <c r="AP22" s="92"/>
+      <c r="AQ22" s="92"/>
+      <c r="AR22" s="92"/>
+      <c r="AS22" s="92"/>
+      <c r="AT22" s="92"/>
+      <c r="AU22" s="92"/>
+      <c r="AV22" s="92"/>
+      <c r="AW22" s="92"/>
+      <c r="AX22" s="92"/>
+      <c r="AY22" s="92"/>
+      <c r="AZ22" s="93"/>
+      <c r="BA22" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="BB22" s="85"/>
-      <c r="BC22" s="85"/>
-      <c r="BD22" s="85"/>
-      <c r="BE22" s="85"/>
-      <c r="BF22" s="85"/>
-      <c r="BG22" s="85"/>
-      <c r="BH22" s="86"/>
+      <c r="BB22" s="78"/>
+      <c r="BC22" s="78"/>
+      <c r="BD22" s="78"/>
+      <c r="BE22" s="78"/>
+      <c r="BF22" s="78"/>
+      <c r="BG22" s="78"/>
+      <c r="BH22" s="79"/>
     </row>
     <row r="23" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="31">
         <v>1</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="79" t="s">
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="79" t="s">
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="81" t="s">
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81" t="s">
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="105" t="s">
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="106"/>
-      <c r="AK23" s="106"/>
-      <c r="AL23" s="106"/>
-      <c r="AM23" s="106"/>
-      <c r="AN23" s="106"/>
-      <c r="AO23" s="106"/>
-      <c r="AP23" s="106"/>
-      <c r="AQ23" s="106"/>
-      <c r="AR23" s="106"/>
-      <c r="AS23" s="106"/>
-      <c r="AT23" s="106"/>
-      <c r="AU23" s="106"/>
-      <c r="AV23" s="106"/>
-      <c r="AW23" s="106"/>
-      <c r="AX23" s="106"/>
-      <c r="AY23" s="106"/>
-      <c r="AZ23" s="107"/>
-      <c r="BA23" s="85" t="s">
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="92"/>
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="92"/>
+      <c r="AN23" s="92"/>
+      <c r="AO23" s="92"/>
+      <c r="AP23" s="92"/>
+      <c r="AQ23" s="92"/>
+      <c r="AR23" s="92"/>
+      <c r="AS23" s="92"/>
+      <c r="AT23" s="92"/>
+      <c r="AU23" s="92"/>
+      <c r="AV23" s="92"/>
+      <c r="AW23" s="92"/>
+      <c r="AX23" s="92"/>
+      <c r="AY23" s="92"/>
+      <c r="AZ23" s="93"/>
+      <c r="BA23" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="BB23" s="85"/>
-      <c r="BC23" s="85"/>
-      <c r="BD23" s="85"/>
-      <c r="BE23" s="85"/>
-      <c r="BF23" s="85"/>
-      <c r="BG23" s="85"/>
-      <c r="BH23" s="86"/>
+      <c r="BB23" s="78"/>
+      <c r="BC23" s="78"/>
+      <c r="BD23" s="78"/>
+      <c r="BE23" s="78"/>
+      <c r="BF23" s="78"/>
+      <c r="BG23" s="78"/>
+      <c r="BH23" s="79"/>
     </row>
     <row r="25" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33"/>
@@ -3519,74 +3519,74 @@
       <c r="B26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78" t="s">
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78" t="s">
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="109" t="s">
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="110"/>
-      <c r="AJ26" s="110"/>
-      <c r="AK26" s="110"/>
-      <c r="AL26" s="110"/>
-      <c r="AM26" s="110"/>
-      <c r="AN26" s="110"/>
-      <c r="AO26" s="110"/>
-      <c r="AP26" s="110"/>
-      <c r="AQ26" s="110"/>
-      <c r="AR26" s="110"/>
-      <c r="AS26" s="110"/>
-      <c r="AT26" s="110"/>
-      <c r="AU26" s="110"/>
-      <c r="AV26" s="110"/>
-      <c r="AW26" s="110"/>
-      <c r="AX26" s="110"/>
-      <c r="AY26" s="110"/>
-      <c r="AZ26" s="111"/>
-      <c r="BA26" s="76" t="s">
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="106"/>
+      <c r="AJ26" s="106"/>
+      <c r="AK26" s="106"/>
+      <c r="AL26" s="106"/>
+      <c r="AM26" s="106"/>
+      <c r="AN26" s="106"/>
+      <c r="AO26" s="106"/>
+      <c r="AP26" s="106"/>
+      <c r="AQ26" s="106"/>
+      <c r="AR26" s="106"/>
+      <c r="AS26" s="106"/>
+      <c r="AT26" s="106"/>
+      <c r="AU26" s="106"/>
+      <c r="AV26" s="106"/>
+      <c r="AW26" s="106"/>
+      <c r="AX26" s="106"/>
+      <c r="AY26" s="106"/>
+      <c r="AZ26" s="107"/>
+      <c r="BA26" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="BB26" s="76"/>
-      <c r="BC26" s="76"/>
-      <c r="BD26" s="76"/>
-      <c r="BE26" s="76"/>
-      <c r="BF26" s="76"/>
-      <c r="BG26" s="76"/>
-      <c r="BH26" s="77"/>
+      <c r="BB26" s="85"/>
+      <c r="BC26" s="85"/>
+      <c r="BD26" s="85"/>
+      <c r="BE26" s="85"/>
+      <c r="BF26" s="85"/>
+      <c r="BG26" s="85"/>
+      <c r="BH26" s="86"/>
       <c r="BI26" s="34"/>
       <c r="BJ26" s="3"/>
       <c r="BK26" s="1"/>
@@ -3792,36 +3792,36 @@
       <c r="B27" s="31">
         <v>1</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="98" t="s">
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="101" t="s">
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
       <c r="AA27" s="102" t="s">
         <v>47</v>
       </c>
@@ -3850,16 +3850,16 @@
       <c r="AX27" s="103"/>
       <c r="AY27" s="103"/>
       <c r="AZ27" s="104"/>
-      <c r="BA27" s="85" t="s">
+      <c r="BA27" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="BB27" s="85"/>
-      <c r="BC27" s="85"/>
-      <c r="BD27" s="85"/>
-      <c r="BE27" s="85"/>
-      <c r="BF27" s="85"/>
-      <c r="BG27" s="85"/>
-      <c r="BH27" s="86"/>
+      <c r="BB27" s="78"/>
+      <c r="BC27" s="78"/>
+      <c r="BD27" s="78"/>
+      <c r="BE27" s="78"/>
+      <c r="BF27" s="78"/>
+      <c r="BG27" s="78"/>
+      <c r="BH27" s="79"/>
       <c r="BI27" s="34"/>
       <c r="BJ27" s="3"/>
       <c r="BK27" s="1"/>
@@ -4065,36 +4065,36 @@
       <c r="B28" s="31">
         <v>2</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="98" t="s">
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="101" t="s">
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
       <c r="AA28" s="102" t="s">
         <v>47</v>
       </c>
@@ -4123,16 +4123,16 @@
       <c r="AX28" s="103"/>
       <c r="AY28" s="103"/>
       <c r="AZ28" s="104"/>
-      <c r="BA28" s="85" t="s">
+      <c r="BA28" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="BB28" s="85"/>
-      <c r="BC28" s="85"/>
-      <c r="BD28" s="85"/>
-      <c r="BE28" s="85"/>
-      <c r="BF28" s="85"/>
-      <c r="BG28" s="85"/>
-      <c r="BH28" s="86"/>
+      <c r="BB28" s="78"/>
+      <c r="BC28" s="78"/>
+      <c r="BD28" s="78"/>
+      <c r="BE28" s="78"/>
+      <c r="BF28" s="78"/>
+      <c r="BG28" s="78"/>
+      <c r="BH28" s="79"/>
       <c r="BI28" s="20"/>
       <c r="BJ28" s="3"/>
       <c r="BK28" s="1"/>
@@ -4354,6 +4354,11 @@
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="K27:R27"/>
     <mergeCell ref="S27:Z27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="S28:Z28"/>
+    <mergeCell ref="AA28:AZ28"/>
+    <mergeCell ref="C22:J22"/>
     <mergeCell ref="AL9:BI9"/>
     <mergeCell ref="G6:BI6"/>
     <mergeCell ref="G9:AE9"/>
@@ -4366,11 +4371,18 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="AF9:AK9"/>
     <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="S28:Z28"/>
-    <mergeCell ref="AA28:AZ28"/>
-    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="S14:Z14"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
     <mergeCell ref="K22:R22"/>
     <mergeCell ref="S22:Z22"/>
     <mergeCell ref="AA22:AC22"/>
@@ -4416,21 +4428,9 @@
     <mergeCell ref="K21:R21"/>
     <mergeCell ref="S21:Z21"/>
     <mergeCell ref="AI13:AZ13"/>
-    <mergeCell ref="C14:J14"/>
     <mergeCell ref="AI12:AZ12"/>
     <mergeCell ref="AI14:AZ14"/>
     <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="K18:R18"/>
     <mergeCell ref="S18:Z18"/>
@@ -4439,7 +4439,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA18 AD18 AD22:AD23 AA22:AA23" xr:uid="{B1B44088-480F-429F-B393-7ED97AC67037}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD18 AA22:AA23 AD22:AD23 AA18" xr:uid="{B1B44088-480F-429F-B393-7ED97AC67037}">
       <formula1>"あり,なし"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4454,7 +4454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896C4E16-B74B-48FC-A0EF-B3B661435E7B}">
   <dimension ref="A1:IY61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="AM33" sqref="AM33"/>
     </sheetView>
   </sheetViews>
@@ -4465,87 +4465,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="89" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="94" t="str">
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="83" t="str">
         <f>クラス仕様!R1</f>
         <v>カテゴリ管理</v>
       </c>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="89" t="s">
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="94" t="str">
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="83" t="str">
         <f>クラス仕様!AE1</f>
         <v>カテゴリ情報出力</v>
       </c>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="94"/>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="89" t="s">
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="94" t="s">
+      <c r="AR1" s="94"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="94"/>
-      <c r="AZ1" s="94"/>
-      <c r="BA1" s="89" t="s">
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="96">
+      <c r="BB1" s="94"/>
+      <c r="BC1" s="94"/>
+      <c r="BD1" s="100">
         <v>45911</v>
       </c>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
+      <c r="BE1" s="100"/>
+      <c r="BF1" s="100"/>
+      <c r="BG1" s="100"/>
+      <c r="BH1" s="100"/>
+      <c r="BI1" s="100"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -4745,80 +4745,80 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="89" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="89" t="s">
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="94" t="str">
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="83" t="str">
         <f>クラス仕様!G6</f>
         <v>CategoryDTO</v>
       </c>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="89" t="s">
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="89" t="s">
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="96">
+      <c r="BB2" s="94"/>
+      <c r="BC2" s="94"/>
+      <c r="BD2" s="100">
         <v>45912</v>
       </c>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="96"/>
-      <c r="BI2" s="96"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="100"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -5018,14 +5018,14 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="125" t="s">
         <v>76</v>
       </c>
@@ -6015,71 +6015,71 @@
       <c r="B8" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78" t="s">
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="78"/>
-      <c r="BA8" s="78"/>
-      <c r="BB8" s="78"/>
-      <c r="BC8" s="78"/>
-      <c r="BD8" s="78"/>
-      <c r="BE8" s="78"/>
-      <c r="BF8" s="78"/>
-      <c r="BG8" s="78"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
       <c r="BI8" s="36"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="1"/>
@@ -7232,71 +7232,71 @@
       <c r="B13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78" t="s">
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78" t="s">
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="78"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="78"/>
-      <c r="AO13" s="78"/>
-      <c r="AP13" s="78"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="78"/>
-      <c r="AS13" s="78"/>
-      <c r="AT13" s="78"/>
-      <c r="AU13" s="78"/>
-      <c r="AV13" s="78"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="78"/>
-      <c r="AZ13" s="78"/>
-      <c r="BA13" s="78"/>
-      <c r="BB13" s="78"/>
-      <c r="BC13" s="78"/>
-      <c r="BD13" s="78"/>
-      <c r="BE13" s="78"/>
-      <c r="BF13" s="78"/>
-      <c r="BG13" s="78"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="89"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="89"/>
+      <c r="AL13" s="89"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="89"/>
+      <c r="AO13" s="89"/>
+      <c r="AP13" s="89"/>
+      <c r="AQ13" s="89"/>
+      <c r="AR13" s="89"/>
+      <c r="AS13" s="89"/>
+      <c r="AT13" s="89"/>
+      <c r="AU13" s="89"/>
+      <c r="AV13" s="89"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="89"/>
+      <c r="AY13" s="89"/>
+      <c r="AZ13" s="89"/>
+      <c r="BA13" s="89"/>
+      <c r="BB13" s="89"/>
+      <c r="BC13" s="89"/>
+      <c r="BD13" s="89"/>
+      <c r="BE13" s="89"/>
+      <c r="BF13" s="89"/>
+      <c r="BG13" s="89"/>
       <c r="BI13" s="36"/>
       <c r="BJ13" s="3"/>
       <c r="BK13" s="1"/>
@@ -8235,77 +8235,77 @@
       <c r="B17" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="76" t="s">
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="76" t="s">
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="123" t="s">
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="124" t="s">
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="124" t="s">
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="83"/>
-      <c r="AI17" s="83"/>
-      <c r="AJ17" s="83"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="83"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="83"/>
-      <c r="AP17" s="83"/>
-      <c r="AQ17" s="83"/>
-      <c r="AR17" s="83"/>
-      <c r="AS17" s="83"/>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="83"/>
-      <c r="AV17" s="83"/>
-      <c r="AW17" s="83"/>
-      <c r="AX17" s="83"/>
-      <c r="AY17" s="78" t="s">
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="87"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87"/>
+      <c r="AY17" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AZ17" s="78"/>
-      <c r="BA17" s="78"/>
-      <c r="BB17" s="78"/>
-      <c r="BC17" s="78"/>
-      <c r="BD17" s="78"/>
-      <c r="BE17" s="78"/>
-      <c r="BF17" s="78"/>
-      <c r="BG17" s="78"/>
+      <c r="AZ17" s="89"/>
+      <c r="BA17" s="89"/>
+      <c r="BB17" s="89"/>
+      <c r="BC17" s="89"/>
+      <c r="BD17" s="89"/>
+      <c r="BE17" s="89"/>
+      <c r="BF17" s="89"/>
+      <c r="BG17" s="89"/>
       <c r="BI17" s="36"/>
     </row>
     <row r="18" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8354,25 +8354,25 @@
       <c r="AE18" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="106"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="106"/>
-      <c r="AR18" s="106"/>
-      <c r="AS18" s="106"/>
-      <c r="AT18" s="106"/>
-      <c r="AU18" s="106"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="106"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="92"/>
+      <c r="AN18" s="92"/>
+      <c r="AO18" s="92"/>
+      <c r="AP18" s="92"/>
+      <c r="AQ18" s="92"/>
+      <c r="AR18" s="92"/>
+      <c r="AS18" s="92"/>
+      <c r="AT18" s="92"/>
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="92"/>
+      <c r="AW18" s="92"/>
+      <c r="AX18" s="92"/>
       <c r="AY18" s="117" t="s">
         <v>60</v>
       </c>
@@ -8630,25 +8630,25 @@
       <c r="AE19" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="AF19" s="106"/>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="106"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="106"/>
-      <c r="AL19" s="106"/>
-      <c r="AM19" s="106"/>
-      <c r="AN19" s="106"/>
-      <c r="AO19" s="106"/>
-      <c r="AP19" s="106"/>
-      <c r="AQ19" s="106"/>
-      <c r="AR19" s="106"/>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="106"/>
-      <c r="AU19" s="106"/>
-      <c r="AV19" s="106"/>
-      <c r="AW19" s="106"/>
-      <c r="AX19" s="106"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="92"/>
+      <c r="AO19" s="92"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="92"/>
+      <c r="AS19" s="92"/>
+      <c r="AT19" s="92"/>
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="92"/>
+      <c r="AW19" s="92"/>
+      <c r="AX19" s="92"/>
       <c r="AY19" s="117" t="s">
         <v>60</v>
       </c>
@@ -9643,71 +9643,71 @@
       <c r="B23" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78" t="s">
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="78" t="s">
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB23" s="78"/>
-      <c r="AC23" s="78"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="78"/>
-      <c r="AH23" s="78"/>
-      <c r="AI23" s="78"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="78"/>
-      <c r="AL23" s="78"/>
-      <c r="AM23" s="78"/>
-      <c r="AN23" s="78"/>
-      <c r="AO23" s="78"/>
-      <c r="AP23" s="78"/>
-      <c r="AQ23" s="78"/>
-      <c r="AR23" s="78"/>
-      <c r="AS23" s="78"/>
-      <c r="AT23" s="78"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="78"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="78"/>
-      <c r="AY23" s="78"/>
-      <c r="AZ23" s="78"/>
-      <c r="BA23" s="78"/>
-      <c r="BB23" s="78"/>
-      <c r="BC23" s="78"/>
-      <c r="BD23" s="78"/>
-      <c r="BE23" s="78"/>
-      <c r="BF23" s="78"/>
-      <c r="BG23" s="78"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="89"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="89"/>
+      <c r="AL23" s="89"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="89"/>
+      <c r="AO23" s="89"/>
+      <c r="AP23" s="89"/>
+      <c r="AQ23" s="89"/>
+      <c r="AR23" s="89"/>
+      <c r="AS23" s="89"/>
+      <c r="AT23" s="89"/>
+      <c r="AU23" s="89"/>
+      <c r="AV23" s="89"/>
+      <c r="AW23" s="89"/>
+      <c r="AX23" s="89"/>
+      <c r="AY23" s="89"/>
+      <c r="AZ23" s="89"/>
+      <c r="BA23" s="89"/>
+      <c r="BB23" s="89"/>
+      <c r="BC23" s="89"/>
+      <c r="BD23" s="89"/>
+      <c r="BE23" s="89"/>
+      <c r="BF23" s="89"/>
+      <c r="BG23" s="89"/>
       <c r="BI23" s="36"/>
       <c r="BJ23" s="32"/>
       <c r="BK23" s="1"/>
@@ -19671,14 +19671,16 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="R1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="AA8:BG8"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
@@ -19686,12 +19688,6 @@
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
     <mergeCell ref="A5:F5"/>
@@ -19700,6 +19696,10 @@
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="S10:Z10"/>
     <mergeCell ref="AA10:BG10"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="AA8:BG8"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="K13:R13"/>
     <mergeCell ref="S13:Z13"/>
@@ -19721,6 +19721,10 @@
     <mergeCell ref="K23:R23"/>
     <mergeCell ref="S23:Z23"/>
     <mergeCell ref="AA23:BG23"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="K24:R24"/>
     <mergeCell ref="S24:Z24"/>
@@ -19737,10 +19741,6 @@
     <mergeCell ref="AC19:AD19"/>
     <mergeCell ref="AE19:AX19"/>
     <mergeCell ref="AY17:BG17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="K25:R25"/>
     <mergeCell ref="S25:Z25"/>
@@ -19781,87 +19781,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="89" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="94" t="str">
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="83" t="str">
         <f>クラス仕様!R1</f>
         <v>カテゴリ管理</v>
       </c>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="89" t="s">
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="94" t="str">
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="83" t="str">
         <f>クラス仕様!AE1</f>
         <v>カテゴリ情報出力</v>
       </c>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="94"/>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="89" t="s">
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="94" t="s">
+      <c r="AR1" s="94"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="94"/>
-      <c r="AZ1" s="94"/>
-      <c r="BA1" s="89" t="s">
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="96">
+      <c r="BB1" s="94"/>
+      <c r="BC1" s="94"/>
+      <c r="BD1" s="100">
         <v>45911</v>
       </c>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
+      <c r="BE1" s="100"/>
+      <c r="BF1" s="100"/>
+      <c r="BG1" s="100"/>
+      <c r="BH1" s="100"/>
+      <c r="BI1" s="100"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -20061,78 +20061,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="89" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="89" t="s">
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="94" t="str">
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="83" t="str">
         <f>クラス仕様!G6</f>
         <v>CategoryDTO</v>
       </c>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="89" t="s">
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="89" t="s">
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="96"/>
-      <c r="BI2" s="96"/>
+      <c r="BB2" s="94"/>
+      <c r="BC2" s="94"/>
+      <c r="BD2" s="100"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="100"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -20332,14 +20332,14 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="125" t="s">
         <v>70</v>
       </c>
@@ -21329,71 +21329,71 @@
       <c r="B8" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78" t="s">
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="78"/>
-      <c r="BA8" s="78"/>
-      <c r="BB8" s="78"/>
-      <c r="BC8" s="78"/>
-      <c r="BD8" s="78"/>
-      <c r="BE8" s="78"/>
-      <c r="BF8" s="78"/>
-      <c r="BG8" s="78"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
       <c r="BI8" s="36"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="1"/>
@@ -22276,71 +22276,71 @@
       <c r="B12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78" t="s">
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78" t="s">
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78" t="s">
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="78"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="78"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="78"/>
-      <c r="BG12" s="78"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
       <c r="BI12" s="36"/>
       <c r="BJ12" s="3"/>
       <c r="BK12" s="1"/>
@@ -23279,77 +23279,77 @@
       <c r="B16" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="76" t="s">
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="76" t="s">
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="123" t="s">
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="124" t="s">
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="124" t="s">
+      <c r="AD16" s="88"/>
+      <c r="AE16" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="83"/>
-      <c r="AJ16" s="83"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="83"/>
-      <c r="AM16" s="83"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="83"/>
-      <c r="AP16" s="83"/>
-      <c r="AQ16" s="83"/>
-      <c r="AR16" s="83"/>
-      <c r="AS16" s="83"/>
-      <c r="AT16" s="83"/>
-      <c r="AU16" s="83"/>
-      <c r="AV16" s="83"/>
-      <c r="AW16" s="83"/>
-      <c r="AX16" s="83"/>
-      <c r="AY16" s="78" t="s">
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AZ16" s="78"/>
-      <c r="BA16" s="78"/>
-      <c r="BB16" s="78"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="78"/>
-      <c r="BE16" s="78"/>
-      <c r="BF16" s="78"/>
-      <c r="BG16" s="78"/>
+      <c r="AZ16" s="89"/>
+      <c r="BA16" s="89"/>
+      <c r="BB16" s="89"/>
+      <c r="BC16" s="89"/>
+      <c r="BD16" s="89"/>
+      <c r="BE16" s="89"/>
+      <c r="BF16" s="89"/>
+      <c r="BG16" s="89"/>
       <c r="BI16" s="36"/>
     </row>
     <row r="17" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23398,25 +23398,25 @@
       <c r="AE17" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="106"/>
-      <c r="AJ17" s="106"/>
-      <c r="AK17" s="106"/>
-      <c r="AL17" s="106"/>
-      <c r="AM17" s="106"/>
-      <c r="AN17" s="106"/>
-      <c r="AO17" s="106"/>
-      <c r="AP17" s="106"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="106"/>
-      <c r="AS17" s="106"/>
-      <c r="AT17" s="106"/>
-      <c r="AU17" s="106"/>
-      <c r="AV17" s="106"/>
-      <c r="AW17" s="106"/>
-      <c r="AX17" s="106"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="92"/>
+      <c r="AN17" s="92"/>
+      <c r="AO17" s="92"/>
+      <c r="AP17" s="92"/>
+      <c r="AQ17" s="92"/>
+      <c r="AR17" s="92"/>
+      <c r="AS17" s="92"/>
+      <c r="AT17" s="92"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="92"/>
+      <c r="AW17" s="92"/>
+      <c r="AX17" s="92"/>
       <c r="AY17" s="117" t="s">
         <v>60</v>
       </c>
@@ -23674,25 +23674,25 @@
       <c r="AE18" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="106"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="106"/>
-      <c r="AR18" s="106"/>
-      <c r="AS18" s="106"/>
-      <c r="AT18" s="106"/>
-      <c r="AU18" s="106"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="106"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="92"/>
+      <c r="AN18" s="92"/>
+      <c r="AO18" s="92"/>
+      <c r="AP18" s="92"/>
+      <c r="AQ18" s="92"/>
+      <c r="AR18" s="92"/>
+      <c r="AS18" s="92"/>
+      <c r="AT18" s="92"/>
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="92"/>
+      <c r="AW18" s="92"/>
+      <c r="AX18" s="92"/>
       <c r="AY18" s="117" t="s">
         <v>60</v>
       </c>
@@ -24687,71 +24687,71 @@
       <c r="B22" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78" t="s">
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78" t="s">
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78" t="s">
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="78"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="78"/>
-      <c r="BD22" s="78"/>
-      <c r="BE22" s="78"/>
-      <c r="BF22" s="78"/>
-      <c r="BG22" s="78"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="89"/>
+      <c r="AJ22" s="89"/>
+      <c r="AK22" s="89"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="89"/>
+      <c r="AO22" s="89"/>
+      <c r="AP22" s="89"/>
+      <c r="AQ22" s="89"/>
+      <c r="AR22" s="89"/>
+      <c r="AS22" s="89"/>
+      <c r="AT22" s="89"/>
+      <c r="AU22" s="89"/>
+      <c r="AV22" s="89"/>
+      <c r="AW22" s="89"/>
+      <c r="AX22" s="89"/>
+      <c r="AY22" s="89"/>
+      <c r="AZ22" s="89"/>
+      <c r="BA22" s="89"/>
+      <c r="BB22" s="89"/>
+      <c r="BC22" s="89"/>
+      <c r="BD22" s="89"/>
+      <c r="BE22" s="89"/>
+      <c r="BF22" s="89"/>
+      <c r="BG22" s="89"/>
       <c r="BI22" s="36"/>
       <c r="BJ22" s="32"/>
       <c r="BK22" s="1"/>
@@ -34766,9 +34766,11 @@
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="S9:Z9"/>
     <mergeCell ref="AA9:BG9"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AX18"/>
+    <mergeCell ref="AY17:BG17"/>
+    <mergeCell ref="AY18:BG18"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="K13:R13"/>
@@ -34777,13 +34779,11 @@
     <mergeCell ref="AC17:AD17"/>
     <mergeCell ref="AE17:AX17"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="AE18:AX18"/>
-    <mergeCell ref="AY17:BG17"/>
-    <mergeCell ref="AY18:BG18"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
     <mergeCell ref="K18:R18"/>
     <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="3">
@@ -34819,87 +34819,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="89" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="94" t="str">
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="83" t="str">
         <f>クラス仕様!R1</f>
         <v>カテゴリ管理</v>
       </c>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="89" t="s">
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="94" t="str">
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="83" t="str">
         <f>クラス仕様!AE1</f>
         <v>カテゴリ情報出力</v>
       </c>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="94"/>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="89" t="s">
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="94" t="s">
+      <c r="AR1" s="94"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="94"/>
-      <c r="AZ1" s="94"/>
-      <c r="BA1" s="89" t="s">
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="96">
+      <c r="BB1" s="94"/>
+      <c r="BC1" s="94"/>
+      <c r="BD1" s="100">
         <v>45911</v>
       </c>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
+      <c r="BE1" s="100"/>
+      <c r="BF1" s="100"/>
+      <c r="BG1" s="100"/>
+      <c r="BH1" s="100"/>
+      <c r="BI1" s="100"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -35099,78 +35099,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="89" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="89" t="s">
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="94" t="str">
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="83" t="str">
         <f>クラス仕様!G6</f>
         <v>CategoryDTO</v>
       </c>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="89" t="s">
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="89" t="s">
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="96"/>
-      <c r="BI2" s="96"/>
+      <c r="BB2" s="94"/>
+      <c r="BC2" s="94"/>
+      <c r="BD2" s="100"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="100"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -35370,14 +35370,14 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="125" t="s">
         <v>74</v>
       </c>
@@ -36367,71 +36367,71 @@
       <c r="B8" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78" t="s">
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="78"/>
-      <c r="BA8" s="78"/>
-      <c r="BB8" s="78"/>
-      <c r="BC8" s="78"/>
-      <c r="BD8" s="78"/>
-      <c r="BE8" s="78"/>
-      <c r="BF8" s="78"/>
-      <c r="BG8" s="78"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
       <c r="BI8" s="36"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="1"/>
@@ -37314,71 +37314,71 @@
       <c r="B12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78" t="s">
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78" t="s">
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78" t="s">
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="78"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="78"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="78"/>
-      <c r="BG12" s="78"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
       <c r="BI12" s="36"/>
       <c r="BJ12" s="3"/>
       <c r="BK12" s="1"/>
@@ -38317,77 +38317,77 @@
       <c r="B16" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="76" t="s">
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="76" t="s">
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="123" t="s">
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="124" t="s">
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="124" t="s">
+      <c r="AD16" s="88"/>
+      <c r="AE16" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="83"/>
-      <c r="AJ16" s="83"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="83"/>
-      <c r="AM16" s="83"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="83"/>
-      <c r="AP16" s="83"/>
-      <c r="AQ16" s="83"/>
-      <c r="AR16" s="83"/>
-      <c r="AS16" s="83"/>
-      <c r="AT16" s="83"/>
-      <c r="AU16" s="83"/>
-      <c r="AV16" s="83"/>
-      <c r="AW16" s="83"/>
-      <c r="AX16" s="83"/>
-      <c r="AY16" s="78" t="s">
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AZ16" s="78"/>
-      <c r="BA16" s="78"/>
-      <c r="BB16" s="78"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="78"/>
-      <c r="BE16" s="78"/>
-      <c r="BF16" s="78"/>
-      <c r="BG16" s="78"/>
+      <c r="AZ16" s="89"/>
+      <c r="BA16" s="89"/>
+      <c r="BB16" s="89"/>
+      <c r="BC16" s="89"/>
+      <c r="BD16" s="89"/>
+      <c r="BE16" s="89"/>
+      <c r="BF16" s="89"/>
+      <c r="BG16" s="89"/>
       <c r="BI16" s="36"/>
     </row>
     <row r="17" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38436,25 +38436,25 @@
       <c r="AE17" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="106"/>
-      <c r="AJ17" s="106"/>
-      <c r="AK17" s="106"/>
-      <c r="AL17" s="106"/>
-      <c r="AM17" s="106"/>
-      <c r="AN17" s="106"/>
-      <c r="AO17" s="106"/>
-      <c r="AP17" s="106"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="106"/>
-      <c r="AS17" s="106"/>
-      <c r="AT17" s="106"/>
-      <c r="AU17" s="106"/>
-      <c r="AV17" s="106"/>
-      <c r="AW17" s="106"/>
-      <c r="AX17" s="106"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="92"/>
+      <c r="AN17" s="92"/>
+      <c r="AO17" s="92"/>
+      <c r="AP17" s="92"/>
+      <c r="AQ17" s="92"/>
+      <c r="AR17" s="92"/>
+      <c r="AS17" s="92"/>
+      <c r="AT17" s="92"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="92"/>
+      <c r="AW17" s="92"/>
+      <c r="AX17" s="92"/>
       <c r="AY17" s="117" t="s">
         <v>60</v>
       </c>
@@ -38712,25 +38712,25 @@
       <c r="AE18" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="106"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="106"/>
-      <c r="AR18" s="106"/>
-      <c r="AS18" s="106"/>
-      <c r="AT18" s="106"/>
-      <c r="AU18" s="106"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="106"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="92"/>
+      <c r="AN18" s="92"/>
+      <c r="AO18" s="92"/>
+      <c r="AP18" s="92"/>
+      <c r="AQ18" s="92"/>
+      <c r="AR18" s="92"/>
+      <c r="AS18" s="92"/>
+      <c r="AT18" s="92"/>
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="92"/>
+      <c r="AW18" s="92"/>
+      <c r="AX18" s="92"/>
       <c r="AY18" s="117" t="s">
         <v>60</v>
       </c>
@@ -39725,71 +39725,71 @@
       <c r="B22" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78" t="s">
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78" t="s">
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78" t="s">
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="78"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="78"/>
-      <c r="BD22" s="78"/>
-      <c r="BE22" s="78"/>
-      <c r="BF22" s="78"/>
-      <c r="BG22" s="78"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="89"/>
+      <c r="AJ22" s="89"/>
+      <c r="AK22" s="89"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="89"/>
+      <c r="AO22" s="89"/>
+      <c r="AP22" s="89"/>
+      <c r="AQ22" s="89"/>
+      <c r="AR22" s="89"/>
+      <c r="AS22" s="89"/>
+      <c r="AT22" s="89"/>
+      <c r="AU22" s="89"/>
+      <c r="AV22" s="89"/>
+      <c r="AW22" s="89"/>
+      <c r="AX22" s="89"/>
+      <c r="AY22" s="89"/>
+      <c r="AZ22" s="89"/>
+      <c r="BA22" s="89"/>
+      <c r="BB22" s="89"/>
+      <c r="BC22" s="89"/>
+      <c r="BD22" s="89"/>
+      <c r="BE22" s="89"/>
+      <c r="BF22" s="89"/>
+      <c r="BG22" s="89"/>
       <c r="BI22" s="36"/>
       <c r="BJ22" s="32"/>
       <c r="BK22" s="1"/>
@@ -49801,27 +49801,27 @@
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="S9:Z9"/>
     <mergeCell ref="AA9:BG9"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="AA8:BG8"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="R1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="AA8:BG8"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="3">

--- a/020-内部設計/023-検索機能/DAO・DTO/クラス仕様書_CategoryDTO.xlsx
+++ b/020-内部設計/023-検索機能/DAO・DTO/クラス仕様書_CategoryDTO.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EDC744-CD93-49E0-B94B-A7FC8DB55081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2454B32A-F4E5-4E38-8F21-B633771F9D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
     <sheet name="コンストラクタ（No.1)" sheetId="10" r:id="rId2"/>
-    <sheet name="メソッド仕様（getCategoryId）" sheetId="7" r:id="rId3"/>
-    <sheet name="メソッド仕様（getCategoryName）" sheetId="8" r:id="rId4"/>
+    <sheet name="メソッド仕様_getCategoryId" sheetId="7" r:id="rId3"/>
+    <sheet name="メソッド仕様_getCategoryName" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BJ$29</definedName>
@@ -223,13 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カテゴリ管理</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カテゴリ情報出力</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -355,50 +348,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フィールドのカテゴリIDに格納されている情報を取得する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィールドのカテゴリ名に格納されている情報を取得する。</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>getCategoryId</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>フィールドのカテゴリIDに格納されている情報を取得する。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1. 　フィールドのカテゴリIDに格納されている情報を取得し返却する。</t>
-    <rPh sb="30" eb="32">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1. 　フィールドのカテゴリ名に格納されている情報を取得し返却する。</t>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>getCategoryName</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>フィールドのカテゴリ名に格納されている情報を取得する。</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -479,9 +433,55 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>カテゴリテーブルのデータを格納するDTOクラスです。</t>
+    <t>カテゴリテーブルのデータを格納するDTOクラス。</t>
     <rPh sb="13" eb="15">
       <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドのカテゴリIDに格納されている情報を取得。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドのカテゴリ名に格納されている情報を取得。</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 　フィールドのカテゴリIDに格納されている情報を取得し返却。</t>
+    <rPh sb="30" eb="32">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>フィールドのカテゴリIDに格納されている情報を取得。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1. 　フィールドのカテゴリ名に格納されている情報を取得し返却。</t>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>フィールドのカテゴリ名に格納されている情報を取得。</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>商品検索</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1169,26 +1169,32 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1196,20 +1202,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1223,6 +1247,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1232,65 +1265,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1301,29 +1310,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="107" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -1647,85 +1647,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="95" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="100" t="s">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="95" t="s">
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="95"/>
-      <c r="AS1" s="95"/>
-      <c r="AT1" s="100" t="s">
-        <v>59</v>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="92" t="s">
+        <v>58</v>
       </c>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100"/>
-      <c r="AY1" s="100"/>
-      <c r="AZ1" s="100"/>
-      <c r="BA1" s="95" t="s">
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="95"/>
-      <c r="BC1" s="95"/>
-      <c r="BD1" s="102">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="94">
         <v>45910</v>
       </c>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1925,80 +1925,80 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="95" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="95" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="100" t="str">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92" t="str">
         <f>G6</f>
         <v>CategoryDTO</v>
       </c>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="95" t="s">
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="95"/>
-      <c r="AS2" s="95"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="95" t="s">
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="95"/>
-      <c r="BC2" s="95"/>
-      <c r="BD2" s="102">
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="94">
         <v>45924</v>
       </c>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2198,410 +2198,410 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97" t="s">
-        <v>80</v>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="79" t="s">
+        <v>73</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="99"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="81"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97" t="s">
-        <v>73</v>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="79" t="s">
+        <v>66</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="98"/>
-      <c r="BA5" s="98"/>
-      <c r="BB5" s="98"/>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="98"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="98"/>
-      <c r="BI5" s="99"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="80"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="80"/>
+      <c r="AP5" s="80"/>
+      <c r="AQ5" s="80"/>
+      <c r="AR5" s="80"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="80"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="81"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="80"/>
+      <c r="AK6" s="80"/>
+      <c r="AL6" s="80"/>
+      <c r="AM6" s="80"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="80"/>
+      <c r="AP6" s="80"/>
+      <c r="AQ6" s="80"/>
+      <c r="AR6" s="80"/>
+      <c r="AS6" s="80"/>
+      <c r="AT6" s="80"/>
+      <c r="AU6" s="80"/>
+      <c r="AV6" s="80"/>
+      <c r="AW6" s="80"/>
+      <c r="AX6" s="80"/>
+      <c r="AY6" s="80"/>
+      <c r="AZ6" s="80"/>
+      <c r="BA6" s="80"/>
+      <c r="BB6" s="80"/>
+      <c r="BC6" s="80"/>
+      <c r="BD6" s="80"/>
+      <c r="BE6" s="80"/>
+      <c r="BF6" s="80"/>
+      <c r="BG6" s="80"/>
+      <c r="BH6" s="80"/>
+      <c r="BI6" s="81"/>
+    </row>
+    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="98"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="98"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="98"/>
-      <c r="AV6" s="98"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="98"/>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="98"/>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="98"/>
-      <c r="BH6" s="98"/>
-      <c r="BI6" s="99"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="80"/>
+      <c r="AJ7" s="80"/>
+      <c r="AK7" s="80"/>
+      <c r="AL7" s="80"/>
+      <c r="AM7" s="80"/>
+      <c r="AN7" s="80"/>
+      <c r="AO7" s="80"/>
+      <c r="AP7" s="80"/>
+      <c r="AQ7" s="80"/>
+      <c r="AR7" s="80"/>
+      <c r="AS7" s="80"/>
+      <c r="AT7" s="80"/>
+      <c r="AU7" s="80"/>
+      <c r="AV7" s="80"/>
+      <c r="AW7" s="80"/>
+      <c r="AX7" s="80"/>
+      <c r="AY7" s="80"/>
+      <c r="AZ7" s="80"/>
+      <c r="BA7" s="80"/>
+      <c r="BB7" s="80"/>
+      <c r="BC7" s="80"/>
+      <c r="BD7" s="80"/>
+      <c r="BE7" s="80"/>
+      <c r="BF7" s="80"/>
+      <c r="BG7" s="80"/>
+      <c r="BH7" s="80"/>
+      <c r="BI7" s="81"/>
     </row>
-    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
-        <v>19</v>
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="82" t="s">
+        <v>16</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="98"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="98"/>
-      <c r="BG7" s="98"/>
-      <c r="BH7" s="98"/>
-      <c r="BI7" s="99"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
+      <c r="AP8" s="80"/>
+      <c r="AQ8" s="80"/>
+      <c r="AR8" s="80"/>
+      <c r="AS8" s="80"/>
+      <c r="AT8" s="80"/>
+      <c r="AU8" s="80"/>
+      <c r="AV8" s="80"/>
+      <c r="AW8" s="80"/>
+      <c r="AX8" s="80"/>
+      <c r="AY8" s="80"/>
+      <c r="AZ8" s="80"/>
+      <c r="BA8" s="80"/>
+      <c r="BB8" s="80"/>
+      <c r="BC8" s="80"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="80"/>
+      <c r="BF8" s="80"/>
+      <c r="BG8" s="80"/>
+      <c r="BH8" s="80"/>
+      <c r="BI8" s="81"/>
     </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
-        <v>16</v>
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="82" t="s">
+        <v>14</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="98"/>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="98"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="98"/>
-      <c r="BA8" s="98"/>
-      <c r="BB8" s="98"/>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="98"/>
-      <c r="BF8" s="98"/>
-      <c r="BG8" s="98"/>
-      <c r="BH8" s="98"/>
-      <c r="BI8" s="99"/>
-    </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="96"/>
-      <c r="AJ9" s="96"/>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM9" s="109"/>
-      <c r="AN9" s="109"/>
-      <c r="AO9" s="109"/>
-      <c r="AP9" s="109"/>
-      <c r="AQ9" s="109"/>
-      <c r="AR9" s="109"/>
-      <c r="AS9" s="109"/>
-      <c r="AT9" s="109"/>
-      <c r="AU9" s="109"/>
-      <c r="AV9" s="109"/>
-      <c r="AW9" s="109"/>
-      <c r="AX9" s="109"/>
-      <c r="AY9" s="109"/>
-      <c r="AZ9" s="109"/>
-      <c r="BA9" s="109"/>
-      <c r="BB9" s="109"/>
-      <c r="BC9" s="109"/>
-      <c r="BD9" s="109"/>
-      <c r="BE9" s="109"/>
-      <c r="BF9" s="109"/>
-      <c r="BG9" s="109"/>
-      <c r="BH9" s="109"/>
-      <c r="BI9" s="109"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="78"/>
+      <c r="BA9" s="78"/>
+      <c r="BB9" s="78"/>
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="78"/>
+      <c r="BE9" s="78"/>
+      <c r="BF9" s="78"/>
+      <c r="BG9" s="78"/>
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="78"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -2613,153 +2613,153 @@
       <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="83" t="s">
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="83" t="s">
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="85" t="s">
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85" t="s">
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="85"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="85"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="85"/>
-      <c r="AT12" s="85"/>
-      <c r="AU12" s="85"/>
-      <c r="AV12" s="85"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="85"/>
-      <c r="BA12" s="105" t="s">
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="BB12" s="83"/>
-      <c r="BC12" s="83"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="83"/>
-      <c r="BF12" s="83"/>
-      <c r="BG12" s="83"/>
-      <c r="BH12" s="84"/>
-      <c r="DI12" s="83" t="s">
+      <c r="BB12" s="74"/>
+      <c r="BC12" s="74"/>
+      <c r="BD12" s="74"/>
+      <c r="BE12" s="74"/>
+      <c r="BF12" s="74"/>
+      <c r="BG12" s="74"/>
+      <c r="BH12" s="75"/>
+      <c r="DI12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="DJ12" s="83"/>
-      <c r="DK12" s="83"/>
-      <c r="DL12" s="83"/>
-      <c r="DM12" s="83"/>
-      <c r="DN12" s="83"/>
-      <c r="DO12" s="83"/>
-      <c r="DP12" s="84"/>
+      <c r="DJ12" s="74"/>
+      <c r="DK12" s="74"/>
+      <c r="DL12" s="74"/>
+      <c r="DM12" s="74"/>
+      <c r="DN12" s="74"/>
+      <c r="DO12" s="74"/>
+      <c r="DP12" s="75"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31">
         <v>1</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="81" t="s">
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="81" t="s">
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="107" t="s">
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="85"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ13" s="107"/>
-      <c r="AK13" s="107"/>
-      <c r="AL13" s="107"/>
-      <c r="AM13" s="107"/>
-      <c r="AN13" s="107"/>
-      <c r="AO13" s="107"/>
-      <c r="AP13" s="107"/>
-      <c r="AQ13" s="107"/>
-      <c r="AR13" s="107"/>
-      <c r="AS13" s="107"/>
-      <c r="AT13" s="107"/>
-      <c r="AU13" s="107"/>
-      <c r="AV13" s="107"/>
-      <c r="AW13" s="107"/>
-      <c r="AX13" s="107"/>
-      <c r="AY13" s="107"/>
-      <c r="AZ13" s="107"/>
-      <c r="BA13" s="103" t="s">
-        <v>46</v>
+      <c r="AJ13" s="85"/>
+      <c r="AK13" s="85"/>
+      <c r="AL13" s="85"/>
+      <c r="AM13" s="85"/>
+      <c r="AN13" s="85"/>
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="85"/>
+      <c r="AQ13" s="85"/>
+      <c r="AR13" s="85"/>
+      <c r="AS13" s="85"/>
+      <c r="AT13" s="85"/>
+      <c r="AU13" s="85"/>
+      <c r="AV13" s="85"/>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="85"/>
+      <c r="AY13" s="85"/>
+      <c r="AZ13" s="85"/>
+      <c r="BA13" s="88" t="s">
+        <v>45</v>
       </c>
       <c r="BB13" s="86"/>
       <c r="BC13" s="86"/>
@@ -2781,68 +2781,68 @@
       <c r="B14" s="31">
         <v>2</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="81" t="s">
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="81" t="s">
-        <v>44</v>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="85"/>
+      <c r="AE14" s="85"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="85" t="s">
+        <v>45</v>
       </c>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="107"/>
-      <c r="AH14" s="107"/>
-      <c r="AI14" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ14" s="107"/>
-      <c r="AK14" s="107"/>
-      <c r="AL14" s="107"/>
-      <c r="AM14" s="107"/>
-      <c r="AN14" s="107"/>
-      <c r="AO14" s="107"/>
-      <c r="AP14" s="107"/>
-      <c r="AQ14" s="107"/>
-      <c r="AR14" s="107"/>
-      <c r="AS14" s="107"/>
-      <c r="AT14" s="107"/>
-      <c r="AU14" s="107"/>
-      <c r="AV14" s="107"/>
-      <c r="AW14" s="107"/>
-      <c r="AX14" s="107"/>
-      <c r="AY14" s="107"/>
-      <c r="AZ14" s="107"/>
-      <c r="BA14" s="103" t="s">
-        <v>46</v>
+      <c r="AJ14" s="85"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="85"/>
+      <c r="AM14" s="85"/>
+      <c r="AN14" s="85"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="85"/>
+      <c r="AQ14" s="85"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="85"/>
+      <c r="AU14" s="85"/>
+      <c r="AV14" s="85"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="88" t="s">
+        <v>45</v>
       </c>
       <c r="BB14" s="86"/>
       <c r="BC14" s="86"/>
@@ -2862,154 +2862,154 @@
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="83" t="s">
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="83" t="s">
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="85" t="s">
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="85" t="s">
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AE17" s="85"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="104" t="s">
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="104"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="104"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="104"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="104"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="104"/>
-      <c r="AW17" s="104"/>
-      <c r="AX17" s="104"/>
-      <c r="AY17" s="104"/>
-      <c r="AZ17" s="105"/>
-      <c r="BA17" s="83" t="s">
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="76"/>
+      <c r="AZ17" s="77"/>
+      <c r="BA17" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BB17" s="83"/>
-      <c r="BC17" s="83"/>
-      <c r="BD17" s="83"/>
-      <c r="BE17" s="83"/>
-      <c r="BF17" s="83"/>
-      <c r="BG17" s="83"/>
-      <c r="BH17" s="84"/>
+      <c r="BB17" s="74"/>
+      <c r="BC17" s="74"/>
+      <c r="BD17" s="74"/>
+      <c r="BE17" s="74"/>
+      <c r="BF17" s="74"/>
+      <c r="BG17" s="74"/>
+      <c r="BH17" s="75"/>
     </row>
     <row r="18" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="31">
         <v>1</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="81" t="s">
-        <v>38</v>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="90" t="s">
+        <v>71</v>
       </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB18" s="91"/>
-      <c r="AC18" s="91"/>
-      <c r="AD18" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="106"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="106"/>
-      <c r="AR18" s="106"/>
-      <c r="AS18" s="106"/>
-      <c r="AT18" s="106"/>
-      <c r="AU18" s="106"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="106"/>
-      <c r="AY18" s="106"/>
-      <c r="AZ18" s="103"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="88"/>
       <c r="BA18" s="86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BB18" s="86"/>
       <c r="BC18" s="86"/>
@@ -3028,147 +3028,147 @@
       <c r="B21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="83" t="s">
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="83" t="s">
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="T21" s="83"/>
-      <c r="U21" s="83"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="85" t="s">
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="85" t="s">
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AE21" s="85"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="104" t="s">
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AH21" s="104"/>
-      <c r="AI21" s="104"/>
-      <c r="AJ21" s="104"/>
-      <c r="AK21" s="104"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="104"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="104"/>
-      <c r="AR21" s="104"/>
-      <c r="AS21" s="104"/>
-      <c r="AT21" s="104"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="104"/>
-      <c r="AW21" s="104"/>
-      <c r="AX21" s="104"/>
-      <c r="AY21" s="104"/>
-      <c r="AZ21" s="105"/>
-      <c r="BA21" s="83" t="s">
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="76"/>
+      <c r="AZ21" s="77"/>
+      <c r="BA21" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BB21" s="83"/>
-      <c r="BC21" s="83"/>
-      <c r="BD21" s="83"/>
-      <c r="BE21" s="83"/>
-      <c r="BF21" s="83"/>
-      <c r="BG21" s="83"/>
-      <c r="BH21" s="84"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="75"/>
     </row>
     <row r="22" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="31">
         <v>1</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="83"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="89"/>
-      <c r="AN22" s="89"/>
-      <c r="AO22" s="89"/>
-      <c r="AP22" s="89"/>
-      <c r="AQ22" s="89"/>
-      <c r="AR22" s="89"/>
-      <c r="AS22" s="89"/>
-      <c r="AT22" s="89"/>
-      <c r="AU22" s="89"/>
-      <c r="AV22" s="89"/>
-      <c r="AW22" s="89"/>
-      <c r="AX22" s="89"/>
-      <c r="AY22" s="89"/>
-      <c r="AZ22" s="90"/>
+      <c r="AH22" s="97"/>
+      <c r="AI22" s="97"/>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="97"/>
+      <c r="AL22" s="97"/>
+      <c r="AM22" s="97"/>
+      <c r="AN22" s="97"/>
+      <c r="AO22" s="97"/>
+      <c r="AP22" s="97"/>
+      <c r="AQ22" s="97"/>
+      <c r="AR22" s="97"/>
+      <c r="AS22" s="97"/>
+      <c r="AT22" s="97"/>
+      <c r="AU22" s="97"/>
+      <c r="AV22" s="97"/>
+      <c r="AW22" s="97"/>
+      <c r="AX22" s="97"/>
+      <c r="AY22" s="97"/>
+      <c r="AZ22" s="98"/>
       <c r="BA22" s="86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BB22" s="86"/>
       <c r="BC22" s="86"/>
@@ -3182,70 +3182,70 @@
       <c r="B23" s="31">
         <v>1</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB23" s="91"/>
-      <c r="AC23" s="91"/>
-      <c r="AD23" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE23" s="91"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="89"/>
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="89"/>
-      <c r="AO23" s="89"/>
-      <c r="AP23" s="89"/>
-      <c r="AQ23" s="89"/>
-      <c r="AR23" s="89"/>
-      <c r="AS23" s="89"/>
-      <c r="AT23" s="89"/>
-      <c r="AU23" s="89"/>
-      <c r="AV23" s="89"/>
-      <c r="AW23" s="89"/>
-      <c r="AX23" s="89"/>
-      <c r="AY23" s="89"/>
-      <c r="AZ23" s="90"/>
+      <c r="AH23" s="97"/>
+      <c r="AI23" s="97"/>
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="97"/>
+      <c r="AL23" s="97"/>
+      <c r="AM23" s="97"/>
+      <c r="AN23" s="97"/>
+      <c r="AO23" s="97"/>
+      <c r="AP23" s="97"/>
+      <c r="AQ23" s="97"/>
+      <c r="AR23" s="97"/>
+      <c r="AS23" s="97"/>
+      <c r="AT23" s="97"/>
+      <c r="AU23" s="97"/>
+      <c r="AV23" s="97"/>
+      <c r="AW23" s="97"/>
+      <c r="AX23" s="97"/>
+      <c r="AY23" s="97"/>
+      <c r="AZ23" s="98"/>
       <c r="BA23" s="86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BB23" s="86"/>
       <c r="BC23" s="86"/>
@@ -3523,74 +3523,74 @@
       <c r="B26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85" t="s">
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85" t="s">
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="92" t="s">
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="93"/>
-      <c r="AK26" s="93"/>
-      <c r="AL26" s="93"/>
-      <c r="AM26" s="93"/>
-      <c r="AN26" s="93"/>
-      <c r="AO26" s="93"/>
-      <c r="AP26" s="93"/>
-      <c r="AQ26" s="93"/>
-      <c r="AR26" s="93"/>
-      <c r="AS26" s="93"/>
-      <c r="AT26" s="93"/>
-      <c r="AU26" s="93"/>
-      <c r="AV26" s="93"/>
-      <c r="AW26" s="93"/>
-      <c r="AX26" s="93"/>
-      <c r="AY26" s="93"/>
-      <c r="AZ26" s="94"/>
-      <c r="BA26" s="83" t="s">
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="104"/>
+      <c r="AF26" s="104"/>
+      <c r="AG26" s="104"/>
+      <c r="AH26" s="104"/>
+      <c r="AI26" s="104"/>
+      <c r="AJ26" s="104"/>
+      <c r="AK26" s="104"/>
+      <c r="AL26" s="104"/>
+      <c r="AM26" s="104"/>
+      <c r="AN26" s="104"/>
+      <c r="AO26" s="104"/>
+      <c r="AP26" s="104"/>
+      <c r="AQ26" s="104"/>
+      <c r="AR26" s="104"/>
+      <c r="AS26" s="104"/>
+      <c r="AT26" s="104"/>
+      <c r="AU26" s="104"/>
+      <c r="AV26" s="104"/>
+      <c r="AW26" s="104"/>
+      <c r="AX26" s="104"/>
+      <c r="AY26" s="104"/>
+      <c r="AZ26" s="105"/>
+      <c r="BA26" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BB26" s="83"/>
-      <c r="BC26" s="83"/>
-      <c r="BD26" s="83"/>
-      <c r="BE26" s="83"/>
-      <c r="BF26" s="83"/>
-      <c r="BG26" s="83"/>
-      <c r="BH26" s="84"/>
+      <c r="BB26" s="74"/>
+      <c r="BC26" s="74"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="74"/>
+      <c r="BF26" s="74"/>
+      <c r="BG26" s="74"/>
+      <c r="BH26" s="75"/>
       <c r="BI26" s="20"/>
       <c r="BJ26" s="20"/>
       <c r="BK26" s="1"/>
@@ -3796,66 +3796,66 @@
       <c r="B27" s="31">
         <v>1</v>
       </c>
-      <c r="C27" s="74" t="s">
-        <v>46</v>
+      <c r="C27" s="106" t="s">
+        <v>45</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="74" t="s">
-        <v>46</v>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="106" t="s">
+        <v>45</v>
       </c>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="77" t="s">
-        <v>46</v>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="109" t="s">
+        <v>45</v>
       </c>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="78" t="s">
-        <v>46</v>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="100" t="s">
+        <v>45</v>
       </c>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="79"/>
-      <c r="AR27" s="79"/>
-      <c r="AS27" s="79"/>
-      <c r="AT27" s="79"/>
-      <c r="AU27" s="79"/>
-      <c r="AV27" s="79"/>
-      <c r="AW27" s="79"/>
-      <c r="AX27" s="79"/>
-      <c r="AY27" s="79"/>
-      <c r="AZ27" s="80"/>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="101"/>
+      <c r="AJ27" s="101"/>
+      <c r="AK27" s="101"/>
+      <c r="AL27" s="101"/>
+      <c r="AM27" s="101"/>
+      <c r="AN27" s="101"/>
+      <c r="AO27" s="101"/>
+      <c r="AP27" s="101"/>
+      <c r="AQ27" s="101"/>
+      <c r="AR27" s="101"/>
+      <c r="AS27" s="101"/>
+      <c r="AT27" s="101"/>
+      <c r="AU27" s="101"/>
+      <c r="AV27" s="101"/>
+      <c r="AW27" s="101"/>
+      <c r="AX27" s="101"/>
+      <c r="AY27" s="101"/>
+      <c r="AZ27" s="102"/>
       <c r="BA27" s="86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BB27" s="86"/>
       <c r="BC27" s="86"/>
@@ -4069,66 +4069,66 @@
       <c r="B28" s="31">
         <v>2</v>
       </c>
-      <c r="C28" s="74" t="s">
-        <v>46</v>
+      <c r="C28" s="106" t="s">
+        <v>45</v>
       </c>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="74" t="s">
-        <v>46</v>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="106" t="s">
+        <v>45</v>
       </c>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="77" t="s">
-        <v>46</v>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="109" t="s">
+        <v>45</v>
       </c>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="78" t="s">
-        <v>46</v>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="100" t="s">
+        <v>45</v>
       </c>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="79"/>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
-      <c r="AZ28" s="80"/>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="101"/>
+      <c r="AF28" s="101"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="101"/>
+      <c r="AJ28" s="101"/>
+      <c r="AK28" s="101"/>
+      <c r="AL28" s="101"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="101"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="101"/>
+      <c r="AQ28" s="101"/>
+      <c r="AR28" s="101"/>
+      <c r="AS28" s="101"/>
+      <c r="AT28" s="101"/>
+      <c r="AU28" s="101"/>
+      <c r="AV28" s="101"/>
+      <c r="AW28" s="101"/>
+      <c r="AX28" s="101"/>
+      <c r="AY28" s="101"/>
+      <c r="AZ28" s="102"/>
       <c r="BA28" s="86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BB28" s="86"/>
       <c r="BC28" s="86"/>
@@ -4339,23 +4339,66 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="BA21:BH21"/>
-    <mergeCell ref="AG21:AZ21"/>
-    <mergeCell ref="AL9:BI9"/>
-    <mergeCell ref="G6:BI6"/>
-    <mergeCell ref="G9:AE9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:BI8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:BI7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="S28:Z28"/>
+    <mergeCell ref="AA28:AZ28"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="BA22:BH22"/>
+    <mergeCell ref="BA28:BH28"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="AG23:AZ23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="BA27:BH27"/>
+    <mergeCell ref="AA27:AZ27"/>
+    <mergeCell ref="AA26:AZ26"/>
+    <mergeCell ref="BA23:BH23"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:Z26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="S27:Z27"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AZ22"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="R2:AA2"/>
     <mergeCell ref="DI12:DP12"/>
     <mergeCell ref="DI14:DP14"/>
     <mergeCell ref="K12:R12"/>
@@ -4380,66 +4423,23 @@
     <mergeCell ref="S14:Z14"/>
     <mergeCell ref="K13:R13"/>
     <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="BA22:BH22"/>
-    <mergeCell ref="BA28:BH28"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="S23:Z23"/>
-    <mergeCell ref="AG23:AZ23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="BA26:BH26"/>
-    <mergeCell ref="BA27:BH27"/>
-    <mergeCell ref="AA27:AZ27"/>
-    <mergeCell ref="AA26:AZ26"/>
-    <mergeCell ref="BA23:BH23"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="S26:Z26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="S27:Z27"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AZ22"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="S28:Z28"/>
-    <mergeCell ref="AA28:AZ28"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="BA21:BH21"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="AL9:BI9"/>
+    <mergeCell ref="G6:BI6"/>
+    <mergeCell ref="G9:AE9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:BI8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:BI7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="AA13:AH13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4469,87 +4469,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="95" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="100" t="str">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92" t="str">
         <f>クラス仕様!R1</f>
-        <v>カテゴリ管理</v>
+        <v>商品検索</v>
       </c>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="95" t="s">
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="100" t="str">
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="92" t="str">
         <f>クラス仕様!AE1</f>
         <v>カテゴリ情報出力</v>
       </c>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="95" t="s">
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="95"/>
-      <c r="AS1" s="95"/>
-      <c r="AT1" s="100" t="s">
-        <v>60</v>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="92" t="s">
+        <v>59</v>
       </c>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100"/>
-      <c r="AY1" s="100"/>
-      <c r="AZ1" s="100"/>
-      <c r="BA1" s="95" t="s">
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="95"/>
-      <c r="BC1" s="95"/>
-      <c r="BD1" s="102">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="94">
         <v>45911</v>
       </c>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -4749,80 +4749,80 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="95" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="95" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="100" t="str">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92" t="str">
         <f>クラス仕様!G6</f>
         <v>CategoryDTO</v>
       </c>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="95" t="s">
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="95"/>
-      <c r="AS2" s="95"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="95" t="s">
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="95"/>
-      <c r="BC2" s="95"/>
-      <c r="BD2" s="102">
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="94">
         <v>45912</v>
       </c>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -5022,71 +5022,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="110" t="s">
-        <v>79</v>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="123" t="s">
+        <v>72</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="110"/>
-      <c r="BF4" s="110"/>
-      <c r="BG4" s="110"/>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="110"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123"/>
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="123"/>
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="123"/>
+      <c r="BG4" s="123"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="123"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -5286,71 +5286,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112" t="s">
-        <v>72</v>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="125" t="s">
+        <v>65</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="125"/>
+      <c r="AH5" s="125"/>
+      <c r="AI5" s="125"/>
+      <c r="AJ5" s="125"/>
+      <c r="AK5" s="125"/>
+      <c r="AL5" s="125"/>
+      <c r="AM5" s="125"/>
+      <c r="AN5" s="125"/>
+      <c r="AO5" s="125"/>
+      <c r="AP5" s="125"/>
+      <c r="AQ5" s="125"/>
+      <c r="AR5" s="125"/>
+      <c r="AS5" s="125"/>
+      <c r="AT5" s="125"/>
+      <c r="AU5" s="125"/>
+      <c r="AV5" s="125"/>
+      <c r="AW5" s="125"/>
+      <c r="AX5" s="125"/>
+      <c r="AY5" s="125"/>
+      <c r="AZ5" s="125"/>
+      <c r="BA5" s="125"/>
+      <c r="BB5" s="125"/>
+      <c r="BC5" s="125"/>
+      <c r="BD5" s="125"/>
+      <c r="BE5" s="125"/>
+      <c r="BF5" s="125"/>
+      <c r="BG5" s="125"/>
+      <c r="BH5" s="125"/>
+      <c r="BI5" s="125"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -6019,71 +6019,71 @@
       <c r="B8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85" t="s">
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="85"/>
-      <c r="BA8" s="85"/>
-      <c r="BB8" s="85"/>
-      <c r="BC8" s="85"/>
-      <c r="BD8" s="85"/>
-      <c r="BE8" s="85"/>
-      <c r="BF8" s="85"/>
-      <c r="BG8" s="85"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
       <c r="BI8" s="34"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="1"/>
@@ -6289,71 +6289,71 @@
       <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="113" t="s">
-        <v>52</v>
+      <c r="C9" s="110" t="s">
+        <v>51</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113" t="s">
-        <v>54</v>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110" t="s">
+        <v>53</v>
       </c>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113" t="s">
-        <v>56</v>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110" t="s">
+        <v>55</v>
       </c>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="114" t="s">
-        <v>58</v>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB9" s="114"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="114"/>
-      <c r="AJ9" s="114"/>
-      <c r="AK9" s="114"/>
-      <c r="AL9" s="114"/>
-      <c r="AM9" s="114"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="114"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="114"/>
-      <c r="AS9" s="114"/>
-      <c r="AT9" s="114"/>
-      <c r="AU9" s="114"/>
-      <c r="AV9" s="114"/>
-      <c r="AW9" s="114"/>
-      <c r="AX9" s="114"/>
-      <c r="AY9" s="114"/>
-      <c r="AZ9" s="114"/>
-      <c r="BA9" s="114"/>
-      <c r="BB9" s="114"/>
-      <c r="BC9" s="114"/>
-      <c r="BD9" s="114"/>
-      <c r="BE9" s="114"/>
-      <c r="BF9" s="114"/>
-      <c r="BG9" s="114"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="111"/>
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
+      <c r="BF9" s="111"/>
+      <c r="BG9" s="111"/>
       <c r="BI9" s="34"/>
       <c r="BJ9" s="3"/>
       <c r="BK9" s="1"/>
@@ -6559,71 +6559,71 @@
       <c r="B10" s="57">
         <v>2</v>
       </c>
-      <c r="C10" s="113" t="s">
-        <v>53</v>
+      <c r="C10" s="110" t="s">
+        <v>52</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113" t="s">
-        <v>55</v>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110" t="s">
+        <v>54</v>
       </c>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113" t="s">
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="114" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="114"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="114"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="114"/>
-      <c r="AR10" s="114"/>
-      <c r="AS10" s="114"/>
-      <c r="AT10" s="114"/>
-      <c r="AU10" s="114"/>
-      <c r="AV10" s="114"/>
-      <c r="AW10" s="114"/>
-      <c r="AX10" s="114"/>
-      <c r="AY10" s="114"/>
-      <c r="AZ10" s="114"/>
-      <c r="BA10" s="114"/>
-      <c r="BB10" s="114"/>
-      <c r="BC10" s="114"/>
-      <c r="BD10" s="114"/>
-      <c r="BE10" s="114"/>
-      <c r="BF10" s="114"/>
-      <c r="BG10" s="114"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="111"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="111"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="111"/>
+      <c r="AK10" s="111"/>
+      <c r="AL10" s="111"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="111"/>
+      <c r="AP10" s="111"/>
+      <c r="AQ10" s="111"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="111"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
+      <c r="AX10" s="111"/>
+      <c r="AY10" s="111"/>
+      <c r="AZ10" s="111"/>
+      <c r="BA10" s="111"/>
+      <c r="BB10" s="111"/>
+      <c r="BC10" s="111"/>
+      <c r="BD10" s="111"/>
+      <c r="BE10" s="111"/>
+      <c r="BF10" s="111"/>
+      <c r="BG10" s="111"/>
       <c r="BI10" s="34"/>
       <c r="BJ10" s="3"/>
       <c r="BK10" s="1"/>
@@ -7236,71 +7236,71 @@
       <c r="B13" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85" t="s">
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85" t="s">
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="85"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="85"/>
-      <c r="AM13" s="85"/>
-      <c r="AN13" s="85"/>
-      <c r="AO13" s="85"/>
-      <c r="AP13" s="85"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="85"/>
-      <c r="AT13" s="85"/>
-      <c r="AU13" s="85"/>
-      <c r="AV13" s="85"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="85"/>
-      <c r="AY13" s="85"/>
-      <c r="AZ13" s="85"/>
-      <c r="BA13" s="85"/>
-      <c r="BB13" s="85"/>
-      <c r="BC13" s="85"/>
-      <c r="BD13" s="85"/>
-      <c r="BE13" s="85"/>
-      <c r="BF13" s="85"/>
-      <c r="BG13" s="85"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="89"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="89"/>
+      <c r="AL13" s="89"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="89"/>
+      <c r="AO13" s="89"/>
+      <c r="AP13" s="89"/>
+      <c r="AQ13" s="89"/>
+      <c r="AR13" s="89"/>
+      <c r="AS13" s="89"/>
+      <c r="AT13" s="89"/>
+      <c r="AU13" s="89"/>
+      <c r="AV13" s="89"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="89"/>
+      <c r="AY13" s="89"/>
+      <c r="AZ13" s="89"/>
+      <c r="BA13" s="89"/>
+      <c r="BB13" s="89"/>
+      <c r="BC13" s="89"/>
+      <c r="BD13" s="89"/>
+      <c r="BE13" s="89"/>
+      <c r="BF13" s="89"/>
+      <c r="BG13" s="89"/>
       <c r="BI13" s="34"/>
       <c r="BJ13" s="3"/>
       <c r="BK13" s="1"/>
@@ -7506,71 +7506,71 @@
       <c r="B14" s="57">
         <v>1</v>
       </c>
-      <c r="C14" s="113" t="s">
-        <v>58</v>
+      <c r="C14" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113" t="s">
-        <v>58</v>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113" t="s">
-        <v>58</v>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="114" t="s">
-        <v>58</v>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB14" s="114"/>
-      <c r="AC14" s="114"/>
-      <c r="AD14" s="114"/>
-      <c r="AE14" s="114"/>
-      <c r="AF14" s="114"/>
-      <c r="AG14" s="114"/>
-      <c r="AH14" s="114"/>
-      <c r="AI14" s="114"/>
-      <c r="AJ14" s="114"/>
-      <c r="AK14" s="114"/>
-      <c r="AL14" s="114"/>
-      <c r="AM14" s="114"/>
-      <c r="AN14" s="114"/>
-      <c r="AO14" s="114"/>
-      <c r="AP14" s="114"/>
-      <c r="AQ14" s="114"/>
-      <c r="AR14" s="114"/>
-      <c r="AS14" s="114"/>
-      <c r="AT14" s="114"/>
-      <c r="AU14" s="114"/>
-      <c r="AV14" s="114"/>
-      <c r="AW14" s="114"/>
-      <c r="AX14" s="114"/>
-      <c r="AY14" s="114"/>
-      <c r="AZ14" s="114"/>
-      <c r="BA14" s="114"/>
-      <c r="BB14" s="114"/>
-      <c r="BC14" s="114"/>
-      <c r="BD14" s="114"/>
-      <c r="BE14" s="114"/>
-      <c r="BF14" s="114"/>
-      <c r="BG14" s="114"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="111"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="111"/>
+      <c r="AJ14" s="111"/>
+      <c r="AK14" s="111"/>
+      <c r="AL14" s="111"/>
+      <c r="AM14" s="111"/>
+      <c r="AN14" s="111"/>
+      <c r="AO14" s="111"/>
+      <c r="AP14" s="111"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="111"/>
+      <c r="AS14" s="111"/>
+      <c r="AT14" s="111"/>
+      <c r="AU14" s="111"/>
+      <c r="AV14" s="111"/>
+      <c r="AW14" s="111"/>
+      <c r="AX14" s="111"/>
+      <c r="AY14" s="111"/>
+      <c r="AZ14" s="111"/>
+      <c r="BA14" s="111"/>
+      <c r="BB14" s="111"/>
+      <c r="BC14" s="111"/>
+      <c r="BD14" s="111"/>
+      <c r="BE14" s="111"/>
+      <c r="BF14" s="111"/>
+      <c r="BG14" s="111"/>
       <c r="BI14" s="34"/>
       <c r="BJ14" s="3"/>
       <c r="BK14" s="1"/>
@@ -8239,77 +8239,77 @@
       <c r="B17" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="83" t="s">
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="83" t="s">
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="119" t="s">
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="AB17" s="105"/>
-      <c r="AC17" s="120" t="s">
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="AD17" s="105"/>
-      <c r="AE17" s="120" t="s">
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="104"/>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="104"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="104"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="104"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="104"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="104"/>
-      <c r="AW17" s="104"/>
-      <c r="AX17" s="104"/>
-      <c r="AY17" s="85" t="s">
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AZ17" s="85"/>
-      <c r="BA17" s="85"/>
-      <c r="BB17" s="85"/>
-      <c r="BC17" s="85"/>
-      <c r="BD17" s="85"/>
-      <c r="BE17" s="85"/>
-      <c r="BF17" s="85"/>
-      <c r="BG17" s="85"/>
+      <c r="AZ17" s="89"/>
+      <c r="BA17" s="89"/>
+      <c r="BB17" s="89"/>
+      <c r="BC17" s="89"/>
+      <c r="BD17" s="89"/>
+      <c r="BE17" s="89"/>
+      <c r="BF17" s="89"/>
+      <c r="BG17" s="89"/>
       <c r="BI17" s="34"/>
     </row>
     <row r="18" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8317,77 +8317,77 @@
       <c r="B18" s="57">
         <v>1</v>
       </c>
-      <c r="C18" s="121" t="s">
-        <v>58</v>
+      <c r="C18" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="121" t="s">
-        <v>58</v>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="121" t="s">
-        <v>58</v>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="115" t="s">
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="115" t="s">
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="116"/>
-      <c r="AE18" s="117" t="s">
-        <v>58</v>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="120" t="s">
+        <v>57</v>
       </c>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="118" t="s">
-        <v>58</v>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="97"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="97"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="97"/>
+      <c r="AN18" s="97"/>
+      <c r="AO18" s="97"/>
+      <c r="AP18" s="97"/>
+      <c r="AQ18" s="97"/>
+      <c r="AR18" s="97"/>
+      <c r="AS18" s="97"/>
+      <c r="AT18" s="97"/>
+      <c r="AU18" s="97"/>
+      <c r="AV18" s="97"/>
+      <c r="AW18" s="97"/>
+      <c r="AX18" s="97"/>
+      <c r="AY18" s="115" t="s">
+        <v>57</v>
       </c>
-      <c r="AZ18" s="118"/>
-      <c r="BA18" s="118"/>
-      <c r="BB18" s="118"/>
-      <c r="BC18" s="118"/>
-      <c r="BD18" s="118"/>
-      <c r="BE18" s="118"/>
-      <c r="BF18" s="118"/>
-      <c r="BG18" s="118"/>
+      <c r="AZ18" s="115"/>
+      <c r="BA18" s="115"/>
+      <c r="BB18" s="115"/>
+      <c r="BC18" s="115"/>
+      <c r="BD18" s="115"/>
+      <c r="BE18" s="115"/>
+      <c r="BF18" s="115"/>
+      <c r="BG18" s="115"/>
       <c r="BI18" s="34"/>
       <c r="BJ18" s="3"/>
       <c r="BK18" s="1"/>
@@ -8593,77 +8593,77 @@
       <c r="B19" s="57">
         <v>2</v>
       </c>
-      <c r="C19" s="121" t="s">
-        <v>58</v>
+      <c r="C19" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="121" t="s">
-        <v>58</v>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="121" t="s">
-        <v>58</v>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="115" t="s">
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AB19" s="116"/>
-      <c r="AC19" s="115" t="s">
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AD19" s="116"/>
-      <c r="AE19" s="117" t="s">
-        <v>58</v>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="120" t="s">
+        <v>57</v>
       </c>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="89"/>
-      <c r="AO19" s="89"/>
-      <c r="AP19" s="89"/>
-      <c r="AQ19" s="89"/>
-      <c r="AR19" s="89"/>
-      <c r="AS19" s="89"/>
-      <c r="AT19" s="89"/>
-      <c r="AU19" s="89"/>
-      <c r="AV19" s="89"/>
-      <c r="AW19" s="89"/>
-      <c r="AX19" s="89"/>
-      <c r="AY19" s="118" t="s">
-        <v>58</v>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="97"/>
+      <c r="AH19" s="97"/>
+      <c r="AI19" s="97"/>
+      <c r="AJ19" s="97"/>
+      <c r="AK19" s="97"/>
+      <c r="AL19" s="97"/>
+      <c r="AM19" s="97"/>
+      <c r="AN19" s="97"/>
+      <c r="AO19" s="97"/>
+      <c r="AP19" s="97"/>
+      <c r="AQ19" s="97"/>
+      <c r="AR19" s="97"/>
+      <c r="AS19" s="97"/>
+      <c r="AT19" s="97"/>
+      <c r="AU19" s="97"/>
+      <c r="AV19" s="97"/>
+      <c r="AW19" s="97"/>
+      <c r="AX19" s="97"/>
+      <c r="AY19" s="115" t="s">
+        <v>57</v>
       </c>
-      <c r="AZ19" s="118"/>
-      <c r="BA19" s="118"/>
-      <c r="BB19" s="118"/>
-      <c r="BC19" s="118"/>
-      <c r="BD19" s="118"/>
-      <c r="BE19" s="118"/>
-      <c r="BF19" s="118"/>
-      <c r="BG19" s="118"/>
+      <c r="AZ19" s="115"/>
+      <c r="BA19" s="115"/>
+      <c r="BB19" s="115"/>
+      <c r="BC19" s="115"/>
+      <c r="BD19" s="115"/>
+      <c r="BE19" s="115"/>
+      <c r="BF19" s="115"/>
+      <c r="BG19" s="115"/>
       <c r="BI19" s="34"/>
       <c r="BJ19" s="3"/>
       <c r="BK19" s="1"/>
@@ -9647,71 +9647,71 @@
       <c r="B23" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85" t="s">
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85" t="s">
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="85"/>
-      <c r="AL23" s="85"/>
-      <c r="AM23" s="85"/>
-      <c r="AN23" s="85"/>
-      <c r="AO23" s="85"/>
-      <c r="AP23" s="85"/>
-      <c r="AQ23" s="85"/>
-      <c r="AR23" s="85"/>
-      <c r="AS23" s="85"/>
-      <c r="AT23" s="85"/>
-      <c r="AU23" s="85"/>
-      <c r="AV23" s="85"/>
-      <c r="AW23" s="85"/>
-      <c r="AX23" s="85"/>
-      <c r="AY23" s="85"/>
-      <c r="AZ23" s="85"/>
-      <c r="BA23" s="85"/>
-      <c r="BB23" s="85"/>
-      <c r="BC23" s="85"/>
-      <c r="BD23" s="85"/>
-      <c r="BE23" s="85"/>
-      <c r="BF23" s="85"/>
-      <c r="BG23" s="85"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="89"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="89"/>
+      <c r="AL23" s="89"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="89"/>
+      <c r="AO23" s="89"/>
+      <c r="AP23" s="89"/>
+      <c r="AQ23" s="89"/>
+      <c r="AR23" s="89"/>
+      <c r="AS23" s="89"/>
+      <c r="AT23" s="89"/>
+      <c r="AU23" s="89"/>
+      <c r="AV23" s="89"/>
+      <c r="AW23" s="89"/>
+      <c r="AX23" s="89"/>
+      <c r="AY23" s="89"/>
+      <c r="AZ23" s="89"/>
+      <c r="BA23" s="89"/>
+      <c r="BB23" s="89"/>
+      <c r="BC23" s="89"/>
+      <c r="BD23" s="89"/>
+      <c r="BE23" s="89"/>
+      <c r="BF23" s="89"/>
+      <c r="BG23" s="89"/>
       <c r="BI23" s="34"/>
       <c r="BJ23" s="32"/>
       <c r="BK23" s="1"/>
@@ -9917,71 +9917,71 @@
       <c r="B24" s="57">
         <v>1</v>
       </c>
-      <c r="C24" s="113" t="s">
-        <v>58</v>
+      <c r="C24" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113" t="s">
-        <v>58</v>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113" t="s">
-        <v>58</v>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="114" t="s">
-        <v>58</v>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB24" s="114"/>
-      <c r="AC24" s="114"/>
-      <c r="AD24" s="114"/>
-      <c r="AE24" s="114"/>
-      <c r="AF24" s="114"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="114"/>
-      <c r="AI24" s="114"/>
-      <c r="AJ24" s="114"/>
-      <c r="AK24" s="114"/>
-      <c r="AL24" s="114"/>
-      <c r="AM24" s="114"/>
-      <c r="AN24" s="114"/>
-      <c r="AO24" s="114"/>
-      <c r="AP24" s="114"/>
-      <c r="AQ24" s="114"/>
-      <c r="AR24" s="114"/>
-      <c r="AS24" s="114"/>
-      <c r="AT24" s="114"/>
-      <c r="AU24" s="114"/>
-      <c r="AV24" s="114"/>
-      <c r="AW24" s="114"/>
-      <c r="AX24" s="114"/>
-      <c r="AY24" s="114"/>
-      <c r="AZ24" s="114"/>
-      <c r="BA24" s="114"/>
-      <c r="BB24" s="114"/>
-      <c r="BC24" s="114"/>
-      <c r="BD24" s="114"/>
-      <c r="BE24" s="114"/>
-      <c r="BF24" s="114"/>
-      <c r="BG24" s="114"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="111"/>
+      <c r="AJ24" s="111"/>
+      <c r="AK24" s="111"/>
+      <c r="AL24" s="111"/>
+      <c r="AM24" s="111"/>
+      <c r="AN24" s="111"/>
+      <c r="AO24" s="111"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="111"/>
+      <c r="AR24" s="111"/>
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
+      <c r="AX24" s="111"/>
+      <c r="AY24" s="111"/>
+      <c r="AZ24" s="111"/>
+      <c r="BA24" s="111"/>
+      <c r="BB24" s="111"/>
+      <c r="BC24" s="111"/>
+      <c r="BD24" s="111"/>
+      <c r="BE24" s="111"/>
+      <c r="BF24" s="111"/>
+      <c r="BG24" s="111"/>
       <c r="BI24" s="34"/>
       <c r="BJ24" s="3"/>
       <c r="BK24" s="1"/>
@@ -10187,71 +10187,71 @@
       <c r="B25" s="57">
         <v>2</v>
       </c>
-      <c r="C25" s="113" t="s">
-        <v>58</v>
+      <c r="C25" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113" t="s">
-        <v>58</v>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113" t="s">
-        <v>58</v>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="114" t="s">
-        <v>58</v>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB25" s="114"/>
-      <c r="AC25" s="114"/>
-      <c r="AD25" s="114"/>
-      <c r="AE25" s="114"/>
-      <c r="AF25" s="114"/>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="114"/>
-      <c r="AI25" s="114"/>
-      <c r="AJ25" s="114"/>
-      <c r="AK25" s="114"/>
-      <c r="AL25" s="114"/>
-      <c r="AM25" s="114"/>
-      <c r="AN25" s="114"/>
-      <c r="AO25" s="114"/>
-      <c r="AP25" s="114"/>
-      <c r="AQ25" s="114"/>
-      <c r="AR25" s="114"/>
-      <c r="AS25" s="114"/>
-      <c r="AT25" s="114"/>
-      <c r="AU25" s="114"/>
-      <c r="AV25" s="114"/>
-      <c r="AW25" s="114"/>
-      <c r="AX25" s="114"/>
-      <c r="AY25" s="114"/>
-      <c r="AZ25" s="114"/>
-      <c r="BA25" s="114"/>
-      <c r="BB25" s="114"/>
-      <c r="BC25" s="114"/>
-      <c r="BD25" s="114"/>
-      <c r="BE25" s="114"/>
-      <c r="BF25" s="114"/>
-      <c r="BG25" s="114"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="111"/>
+      <c r="AG25" s="111"/>
+      <c r="AH25" s="111"/>
+      <c r="AI25" s="111"/>
+      <c r="AJ25" s="111"/>
+      <c r="AK25" s="111"/>
+      <c r="AL25" s="111"/>
+      <c r="AM25" s="111"/>
+      <c r="AN25" s="111"/>
+      <c r="AO25" s="111"/>
+      <c r="AP25" s="111"/>
+      <c r="AQ25" s="111"/>
+      <c r="AR25" s="111"/>
+      <c r="AS25" s="111"/>
+      <c r="AT25" s="111"/>
+      <c r="AU25" s="111"/>
+      <c r="AV25" s="111"/>
+      <c r="AW25" s="111"/>
+      <c r="AX25" s="111"/>
+      <c r="AY25" s="111"/>
+      <c r="AZ25" s="111"/>
+      <c r="BA25" s="111"/>
+      <c r="BB25" s="111"/>
+      <c r="BC25" s="111"/>
+      <c r="BD25" s="111"/>
+      <c r="BE25" s="111"/>
+      <c r="BF25" s="111"/>
+      <c r="BG25" s="111"/>
       <c r="BI25" s="34"/>
       <c r="BJ25" s="3"/>
       <c r="BK25" s="1"/>
@@ -10921,67 +10921,67 @@
     </row>
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33"/>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="124"/>
-      <c r="Q28" s="124"/>
-      <c r="R28" s="124"/>
-      <c r="S28" s="124"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="124"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="124"/>
-      <c r="Y28" s="124"/>
-      <c r="Z28" s="124"/>
-      <c r="AA28" s="124"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="124"/>
-      <c r="AD28" s="124"/>
-      <c r="AE28" s="124"/>
-      <c r="AF28" s="124"/>
-      <c r="AG28" s="124"/>
-      <c r="AH28" s="124"/>
-      <c r="AI28" s="124"/>
-      <c r="AJ28" s="124"/>
-      <c r="AK28" s="124"/>
-      <c r="AL28" s="124"/>
-      <c r="AM28" s="124"/>
-      <c r="AN28" s="124"/>
-      <c r="AO28" s="124"/>
-      <c r="AP28" s="124"/>
-      <c r="AQ28" s="124"/>
-      <c r="AR28" s="124"/>
-      <c r="AS28" s="124"/>
-      <c r="AT28" s="124"/>
-      <c r="AU28" s="124"/>
-      <c r="AV28" s="124"/>
-      <c r="AW28" s="124"/>
-      <c r="AX28" s="124"/>
-      <c r="AY28" s="124"/>
-      <c r="AZ28" s="124"/>
-      <c r="BA28" s="124"/>
-      <c r="BB28" s="124"/>
-      <c r="BC28" s="124"/>
-      <c r="BD28" s="124"/>
-      <c r="BE28" s="124"/>
-      <c r="BF28" s="124"/>
-      <c r="BG28" s="124"/>
-      <c r="BH28" s="125"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="113"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="113"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="113"/>
+      <c r="AE28" s="113"/>
+      <c r="AF28" s="113"/>
+      <c r="AG28" s="113"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="113"/>
+      <c r="AJ28" s="113"/>
+      <c r="AK28" s="113"/>
+      <c r="AL28" s="113"/>
+      <c r="AM28" s="113"/>
+      <c r="AN28" s="113"/>
+      <c r="AO28" s="113"/>
+      <c r="AP28" s="113"/>
+      <c r="AQ28" s="113"/>
+      <c r="AR28" s="113"/>
+      <c r="AS28" s="113"/>
+      <c r="AT28" s="113"/>
+      <c r="AU28" s="113"/>
+      <c r="AV28" s="113"/>
+      <c r="AW28" s="113"/>
+      <c r="AX28" s="113"/>
+      <c r="AY28" s="113"/>
+      <c r="AZ28" s="113"/>
+      <c r="BA28" s="113"/>
+      <c r="BB28" s="113"/>
+      <c r="BC28" s="113"/>
+      <c r="BD28" s="113"/>
+      <c r="BE28" s="113"/>
+      <c r="BF28" s="113"/>
+      <c r="BG28" s="113"/>
+      <c r="BH28" s="114"/>
       <c r="BI28" s="65"/>
       <c r="BJ28" s="4"/>
       <c r="BK28" s="1"/>
@@ -11185,7 +11185,7 @@
     <row r="29" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="66"/>
       <c r="B29" s="67" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
@@ -11676,7 +11676,7 @@
     <row r="31" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
       <c r="B31" s="66" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="71"/>
@@ -19675,11 +19675,60 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="S25:Z25"/>
-    <mergeCell ref="AA25:BG25"/>
-    <mergeCell ref="B28:BH28"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="S10:Z10"/>
+    <mergeCell ref="AA10:BG10"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="AA8:BG8"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AA13:BG13"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AX18"/>
+    <mergeCell ref="AY18:BG18"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="S14:Z14"/>
+    <mergeCell ref="AA14:BG14"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AX17"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="AA23:BG23"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="K24:R24"/>
     <mergeCell ref="S24:Z24"/>
@@ -19696,60 +19745,11 @@
     <mergeCell ref="AC19:AD19"/>
     <mergeCell ref="AE19:AX19"/>
     <mergeCell ref="AY17:BG17"/>
-    <mergeCell ref="AE17:AX17"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="S23:Z23"/>
-    <mergeCell ref="AA23:BG23"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="AA13:BG13"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AX18"/>
-    <mergeCell ref="AY18:BG18"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="AA14:BG14"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="S10:Z10"/>
-    <mergeCell ref="AA10:BG10"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="AA8:BG8"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:Z25"/>
+    <mergeCell ref="AA25:BG25"/>
+    <mergeCell ref="B28:BH28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="3">
@@ -19785,87 +19785,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="95" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="100" t="str">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92" t="str">
         <f>クラス仕様!R1</f>
-        <v>カテゴリ管理</v>
+        <v>商品検索</v>
       </c>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="95" t="s">
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="100" t="str">
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="92" t="str">
         <f>クラス仕様!AE1</f>
         <v>カテゴリ情報出力</v>
       </c>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="95" t="s">
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="95"/>
-      <c r="AS1" s="95"/>
-      <c r="AT1" s="100" t="s">
-        <v>60</v>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="92" t="s">
+        <v>59</v>
       </c>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100"/>
-      <c r="AY1" s="100"/>
-      <c r="AZ1" s="100"/>
-      <c r="BA1" s="95" t="s">
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="95"/>
-      <c r="BC1" s="95"/>
-      <c r="BD1" s="102">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="94">
         <v>45911</v>
       </c>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -20065,78 +20065,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="95" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="95" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="100" t="str">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92" t="str">
         <f>クラス仕様!G6</f>
         <v>CategoryDTO</v>
       </c>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="95" t="s">
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="95"/>
-      <c r="AS2" s="95"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="95" t="s">
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="95"/>
-      <c r="BC2" s="95"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -20336,71 +20336,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="110" t="s">
-        <v>67</v>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="123" t="s">
+        <v>77</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="110"/>
-      <c r="BF4" s="110"/>
-      <c r="BG4" s="110"/>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="110"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123"/>
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="123"/>
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="123"/>
+      <c r="BG4" s="123"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="123"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -20600,71 +20600,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112" t="s">
-        <v>66</v>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="125" t="s">
+        <v>63</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="125"/>
+      <c r="AH5" s="125"/>
+      <c r="AI5" s="125"/>
+      <c r="AJ5" s="125"/>
+      <c r="AK5" s="125"/>
+      <c r="AL5" s="125"/>
+      <c r="AM5" s="125"/>
+      <c r="AN5" s="125"/>
+      <c r="AO5" s="125"/>
+      <c r="AP5" s="125"/>
+      <c r="AQ5" s="125"/>
+      <c r="AR5" s="125"/>
+      <c r="AS5" s="125"/>
+      <c r="AT5" s="125"/>
+      <c r="AU5" s="125"/>
+      <c r="AV5" s="125"/>
+      <c r="AW5" s="125"/>
+      <c r="AX5" s="125"/>
+      <c r="AY5" s="125"/>
+      <c r="AZ5" s="125"/>
+      <c r="BA5" s="125"/>
+      <c r="BB5" s="125"/>
+      <c r="BC5" s="125"/>
+      <c r="BD5" s="125"/>
+      <c r="BE5" s="125"/>
+      <c r="BF5" s="125"/>
+      <c r="BG5" s="125"/>
+      <c r="BH5" s="125"/>
+      <c r="BI5" s="125"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -21333,71 +21333,71 @@
       <c r="B8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85" t="s">
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="85"/>
-      <c r="BA8" s="85"/>
-      <c r="BB8" s="85"/>
-      <c r="BC8" s="85"/>
-      <c r="BD8" s="85"/>
-      <c r="BE8" s="85"/>
-      <c r="BF8" s="85"/>
-      <c r="BG8" s="85"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
       <c r="BI8" s="34"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="1"/>
@@ -21603,71 +21603,71 @@
       <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="113" t="s">
-        <v>58</v>
+      <c r="C9" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113" t="s">
-        <v>58</v>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113" t="s">
-        <v>58</v>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="114" t="s">
-        <v>58</v>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB9" s="114"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="114"/>
-      <c r="AJ9" s="114"/>
-      <c r="AK9" s="114"/>
-      <c r="AL9" s="114"/>
-      <c r="AM9" s="114"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="114"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="114"/>
-      <c r="AS9" s="114"/>
-      <c r="AT9" s="114"/>
-      <c r="AU9" s="114"/>
-      <c r="AV9" s="114"/>
-      <c r="AW9" s="114"/>
-      <c r="AX9" s="114"/>
-      <c r="AY9" s="114"/>
-      <c r="AZ9" s="114"/>
-      <c r="BA9" s="114"/>
-      <c r="BB9" s="114"/>
-      <c r="BC9" s="114"/>
-      <c r="BD9" s="114"/>
-      <c r="BE9" s="114"/>
-      <c r="BF9" s="114"/>
-      <c r="BG9" s="114"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="111"/>
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
+      <c r="BF9" s="111"/>
+      <c r="BG9" s="111"/>
       <c r="BI9" s="34"/>
       <c r="BJ9" s="3"/>
       <c r="BK9" s="1"/>
@@ -22280,71 +22280,71 @@
       <c r="B12" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85" t="s">
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85" t="s">
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85" t="s">
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="85"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="85"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="85"/>
-      <c r="AT12" s="85"/>
-      <c r="AU12" s="85"/>
-      <c r="AV12" s="85"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="85"/>
-      <c r="BA12" s="85"/>
-      <c r="BB12" s="85"/>
-      <c r="BC12" s="85"/>
-      <c r="BD12" s="85"/>
-      <c r="BE12" s="85"/>
-      <c r="BF12" s="85"/>
-      <c r="BG12" s="85"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
       <c r="BI12" s="34"/>
       <c r="BJ12" s="3"/>
       <c r="BK12" s="1"/>
@@ -22550,71 +22550,71 @@
       <c r="B13" s="57">
         <v>1</v>
       </c>
-      <c r="C13" s="113" t="s">
-        <v>52</v>
+      <c r="C13" s="110" t="s">
+        <v>51</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113" t="s">
-        <v>54</v>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110" t="s">
+        <v>53</v>
       </c>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113" t="s">
-        <v>56</v>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110" t="s">
+        <v>55</v>
       </c>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="114" t="s">
-        <v>58</v>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="114"/>
-      <c r="AG13" s="114"/>
-      <c r="AH13" s="114"/>
-      <c r="AI13" s="114"/>
-      <c r="AJ13" s="114"/>
-      <c r="AK13" s="114"/>
-      <c r="AL13" s="114"/>
-      <c r="AM13" s="114"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="114"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="114"/>
-      <c r="AS13" s="114"/>
-      <c r="AT13" s="114"/>
-      <c r="AU13" s="114"/>
-      <c r="AV13" s="114"/>
-      <c r="AW13" s="114"/>
-      <c r="AX13" s="114"/>
-      <c r="AY13" s="114"/>
-      <c r="AZ13" s="114"/>
-      <c r="BA13" s="114"/>
-      <c r="BB13" s="114"/>
-      <c r="BC13" s="114"/>
-      <c r="BD13" s="114"/>
-      <c r="BE13" s="114"/>
-      <c r="BF13" s="114"/>
-      <c r="BG13" s="114"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="111"/>
+      <c r="AH13" s="111"/>
+      <c r="AI13" s="111"/>
+      <c r="AJ13" s="111"/>
+      <c r="AK13" s="111"/>
+      <c r="AL13" s="111"/>
+      <c r="AM13" s="111"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="111"/>
+      <c r="AP13" s="111"/>
+      <c r="AQ13" s="111"/>
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="111"/>
+      <c r="AT13" s="111"/>
+      <c r="AU13" s="111"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
+      <c r="AX13" s="111"/>
+      <c r="AY13" s="111"/>
+      <c r="AZ13" s="111"/>
+      <c r="BA13" s="111"/>
+      <c r="BB13" s="111"/>
+      <c r="BC13" s="111"/>
+      <c r="BD13" s="111"/>
+      <c r="BE13" s="111"/>
+      <c r="BF13" s="111"/>
+      <c r="BG13" s="111"/>
       <c r="BI13" s="34"/>
       <c r="BJ13" s="3"/>
       <c r="BK13" s="1"/>
@@ -23283,77 +23283,77 @@
       <c r="B16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="83" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="83" t="s">
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="119" t="s">
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="120" t="s">
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="AD16" s="105"/>
-      <c r="AE16" s="120" t="s">
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="104"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="104"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="104"/>
-      <c r="AW16" s="104"/>
-      <c r="AX16" s="104"/>
-      <c r="AY16" s="85" t="s">
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="76"/>
+      <c r="AU16" s="76"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AZ16" s="85"/>
-      <c r="BA16" s="85"/>
-      <c r="BB16" s="85"/>
-      <c r="BC16" s="85"/>
-      <c r="BD16" s="85"/>
-      <c r="BE16" s="85"/>
-      <c r="BF16" s="85"/>
-      <c r="BG16" s="85"/>
+      <c r="AZ16" s="89"/>
+      <c r="BA16" s="89"/>
+      <c r="BB16" s="89"/>
+      <c r="BC16" s="89"/>
+      <c r="BD16" s="89"/>
+      <c r="BE16" s="89"/>
+      <c r="BF16" s="89"/>
+      <c r="BG16" s="89"/>
       <c r="BI16" s="34"/>
     </row>
     <row r="17" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23361,77 +23361,77 @@
       <c r="B17" s="57">
         <v>1</v>
       </c>
-      <c r="C17" s="121" t="s">
-        <v>58</v>
+      <c r="C17" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="121" t="s">
-        <v>58</v>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="121" t="s">
-        <v>58</v>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="115" t="s">
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AB17" s="116"/>
-      <c r="AC17" s="115" t="s">
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AD17" s="116"/>
-      <c r="AE17" s="117" t="s">
-        <v>58</v>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="120" t="s">
+        <v>57</v>
       </c>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="89"/>
-      <c r="AP17" s="89"/>
-      <c r="AQ17" s="89"/>
-      <c r="AR17" s="89"/>
-      <c r="AS17" s="89"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="89"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="89"/>
-      <c r="AX17" s="89"/>
-      <c r="AY17" s="118" t="s">
-        <v>58</v>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="97"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="97"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="97"/>
+      <c r="AP17" s="97"/>
+      <c r="AQ17" s="97"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="97"/>
+      <c r="AV17" s="97"/>
+      <c r="AW17" s="97"/>
+      <c r="AX17" s="97"/>
+      <c r="AY17" s="115" t="s">
+        <v>57</v>
       </c>
-      <c r="AZ17" s="118"/>
-      <c r="BA17" s="118"/>
-      <c r="BB17" s="118"/>
-      <c r="BC17" s="118"/>
-      <c r="BD17" s="118"/>
-      <c r="BE17" s="118"/>
-      <c r="BF17" s="118"/>
-      <c r="BG17" s="118"/>
+      <c r="AZ17" s="115"/>
+      <c r="BA17" s="115"/>
+      <c r="BB17" s="115"/>
+      <c r="BC17" s="115"/>
+      <c r="BD17" s="115"/>
+      <c r="BE17" s="115"/>
+      <c r="BF17" s="115"/>
+      <c r="BG17" s="115"/>
       <c r="BI17" s="34"/>
       <c r="BJ17" s="3"/>
       <c r="BK17" s="1"/>
@@ -23637,77 +23637,77 @@
       <c r="B18" s="57">
         <v>2</v>
       </c>
-      <c r="C18" s="121" t="s">
-        <v>58</v>
+      <c r="C18" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="121" t="s">
-        <v>58</v>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="121" t="s">
-        <v>58</v>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="115" t="s">
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="115" t="s">
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="116"/>
-      <c r="AE18" s="117" t="s">
-        <v>58</v>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="120" t="s">
+        <v>57</v>
       </c>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="118" t="s">
-        <v>58</v>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="97"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="97"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="97"/>
+      <c r="AN18" s="97"/>
+      <c r="AO18" s="97"/>
+      <c r="AP18" s="97"/>
+      <c r="AQ18" s="97"/>
+      <c r="AR18" s="97"/>
+      <c r="AS18" s="97"/>
+      <c r="AT18" s="97"/>
+      <c r="AU18" s="97"/>
+      <c r="AV18" s="97"/>
+      <c r="AW18" s="97"/>
+      <c r="AX18" s="97"/>
+      <c r="AY18" s="115" t="s">
+        <v>57</v>
       </c>
-      <c r="AZ18" s="118"/>
-      <c r="BA18" s="118"/>
-      <c r="BB18" s="118"/>
-      <c r="BC18" s="118"/>
-      <c r="BD18" s="118"/>
-      <c r="BE18" s="118"/>
-      <c r="BF18" s="118"/>
-      <c r="BG18" s="118"/>
+      <c r="AZ18" s="115"/>
+      <c r="BA18" s="115"/>
+      <c r="BB18" s="115"/>
+      <c r="BC18" s="115"/>
+      <c r="BD18" s="115"/>
+      <c r="BE18" s="115"/>
+      <c r="BF18" s="115"/>
+      <c r="BG18" s="115"/>
       <c r="BI18" s="34"/>
       <c r="BJ18" s="3"/>
       <c r="BK18" s="1"/>
@@ -24691,71 +24691,71 @@
       <c r="B22" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85" t="s">
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85" t="s">
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85" t="s">
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="85"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="85"/>
-      <c r="AY22" s="85"/>
-      <c r="AZ22" s="85"/>
-      <c r="BA22" s="85"/>
-      <c r="BB22" s="85"/>
-      <c r="BC22" s="85"/>
-      <c r="BD22" s="85"/>
-      <c r="BE22" s="85"/>
-      <c r="BF22" s="85"/>
-      <c r="BG22" s="85"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="89"/>
+      <c r="AJ22" s="89"/>
+      <c r="AK22" s="89"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="89"/>
+      <c r="AO22" s="89"/>
+      <c r="AP22" s="89"/>
+      <c r="AQ22" s="89"/>
+      <c r="AR22" s="89"/>
+      <c r="AS22" s="89"/>
+      <c r="AT22" s="89"/>
+      <c r="AU22" s="89"/>
+      <c r="AV22" s="89"/>
+      <c r="AW22" s="89"/>
+      <c r="AX22" s="89"/>
+      <c r="AY22" s="89"/>
+      <c r="AZ22" s="89"/>
+      <c r="BA22" s="89"/>
+      <c r="BB22" s="89"/>
+      <c r="BC22" s="89"/>
+      <c r="BD22" s="89"/>
+      <c r="BE22" s="89"/>
+      <c r="BF22" s="89"/>
+      <c r="BG22" s="89"/>
       <c r="BI22" s="34"/>
       <c r="BJ22" s="32"/>
       <c r="BK22" s="1"/>
@@ -24961,71 +24961,71 @@
       <c r="B23" s="57">
         <v>1</v>
       </c>
-      <c r="C23" s="113" t="s">
-        <v>58</v>
+      <c r="C23" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113" t="s">
-        <v>58</v>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113" t="s">
-        <v>58</v>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="114" t="s">
-        <v>58</v>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="110"/>
+      <c r="X23" s="110"/>
+      <c r="Y23" s="110"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB23" s="114"/>
-      <c r="AC23" s="114"/>
-      <c r="AD23" s="114"/>
-      <c r="AE23" s="114"/>
-      <c r="AF23" s="114"/>
-      <c r="AG23" s="114"/>
-      <c r="AH23" s="114"/>
-      <c r="AI23" s="114"/>
-      <c r="AJ23" s="114"/>
-      <c r="AK23" s="114"/>
-      <c r="AL23" s="114"/>
-      <c r="AM23" s="114"/>
-      <c r="AN23" s="114"/>
-      <c r="AO23" s="114"/>
-      <c r="AP23" s="114"/>
-      <c r="AQ23" s="114"/>
-      <c r="AR23" s="114"/>
-      <c r="AS23" s="114"/>
-      <c r="AT23" s="114"/>
-      <c r="AU23" s="114"/>
-      <c r="AV23" s="114"/>
-      <c r="AW23" s="114"/>
-      <c r="AX23" s="114"/>
-      <c r="AY23" s="114"/>
-      <c r="AZ23" s="114"/>
-      <c r="BA23" s="114"/>
-      <c r="BB23" s="114"/>
-      <c r="BC23" s="114"/>
-      <c r="BD23" s="114"/>
-      <c r="BE23" s="114"/>
-      <c r="BF23" s="114"/>
-      <c r="BG23" s="114"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="111"/>
+      <c r="AG23" s="111"/>
+      <c r="AH23" s="111"/>
+      <c r="AI23" s="111"/>
+      <c r="AJ23" s="111"/>
+      <c r="AK23" s="111"/>
+      <c r="AL23" s="111"/>
+      <c r="AM23" s="111"/>
+      <c r="AN23" s="111"/>
+      <c r="AO23" s="111"/>
+      <c r="AP23" s="111"/>
+      <c r="AQ23" s="111"/>
+      <c r="AR23" s="111"/>
+      <c r="AS23" s="111"/>
+      <c r="AT23" s="111"/>
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="111"/>
+      <c r="AW23" s="111"/>
+      <c r="AX23" s="111"/>
+      <c r="AY23" s="111"/>
+      <c r="AZ23" s="111"/>
+      <c r="BA23" s="111"/>
+      <c r="BB23" s="111"/>
+      <c r="BC23" s="111"/>
+      <c r="BD23" s="111"/>
+      <c r="BE23" s="111"/>
+      <c r="BF23" s="111"/>
+      <c r="BG23" s="111"/>
       <c r="BI23" s="34"/>
       <c r="BJ23" s="3"/>
       <c r="BK23" s="1"/>
@@ -25231,71 +25231,71 @@
       <c r="B24" s="57">
         <v>2</v>
       </c>
-      <c r="C24" s="113" t="s">
-        <v>58</v>
+      <c r="C24" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113" t="s">
-        <v>58</v>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113" t="s">
-        <v>58</v>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="114" t="s">
-        <v>58</v>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB24" s="114"/>
-      <c r="AC24" s="114"/>
-      <c r="AD24" s="114"/>
-      <c r="AE24" s="114"/>
-      <c r="AF24" s="114"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="114"/>
-      <c r="AI24" s="114"/>
-      <c r="AJ24" s="114"/>
-      <c r="AK24" s="114"/>
-      <c r="AL24" s="114"/>
-      <c r="AM24" s="114"/>
-      <c r="AN24" s="114"/>
-      <c r="AO24" s="114"/>
-      <c r="AP24" s="114"/>
-      <c r="AQ24" s="114"/>
-      <c r="AR24" s="114"/>
-      <c r="AS24" s="114"/>
-      <c r="AT24" s="114"/>
-      <c r="AU24" s="114"/>
-      <c r="AV24" s="114"/>
-      <c r="AW24" s="114"/>
-      <c r="AX24" s="114"/>
-      <c r="AY24" s="114"/>
-      <c r="AZ24" s="114"/>
-      <c r="BA24" s="114"/>
-      <c r="BB24" s="114"/>
-      <c r="BC24" s="114"/>
-      <c r="BD24" s="114"/>
-      <c r="BE24" s="114"/>
-      <c r="BF24" s="114"/>
-      <c r="BG24" s="114"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="111"/>
+      <c r="AJ24" s="111"/>
+      <c r="AK24" s="111"/>
+      <c r="AL24" s="111"/>
+      <c r="AM24" s="111"/>
+      <c r="AN24" s="111"/>
+      <c r="AO24" s="111"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="111"/>
+      <c r="AR24" s="111"/>
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
+      <c r="AX24" s="111"/>
+      <c r="AY24" s="111"/>
+      <c r="AZ24" s="111"/>
+      <c r="BA24" s="111"/>
+      <c r="BB24" s="111"/>
+      <c r="BC24" s="111"/>
+      <c r="BD24" s="111"/>
+      <c r="BE24" s="111"/>
+      <c r="BF24" s="111"/>
+      <c r="BG24" s="111"/>
       <c r="BI24" s="34"/>
       <c r="BJ24" s="3"/>
       <c r="BK24" s="1"/>
@@ -25965,67 +25965,67 @@
     </row>
     <row r="27" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="124"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="124"/>
-      <c r="S27" s="124"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124"/>
-      <c r="Z27" s="124"/>
-      <c r="AA27" s="124"/>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="124"/>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="124"/>
-      <c r="AJ27" s="124"/>
-      <c r="AK27" s="124"/>
-      <c r="AL27" s="124"/>
-      <c r="AM27" s="124"/>
-      <c r="AN27" s="124"/>
-      <c r="AO27" s="124"/>
-      <c r="AP27" s="124"/>
-      <c r="AQ27" s="124"/>
-      <c r="AR27" s="124"/>
-      <c r="AS27" s="124"/>
-      <c r="AT27" s="124"/>
-      <c r="AU27" s="124"/>
-      <c r="AV27" s="124"/>
-      <c r="AW27" s="124"/>
-      <c r="AX27" s="124"/>
-      <c r="AY27" s="124"/>
-      <c r="AZ27" s="124"/>
-      <c r="BA27" s="124"/>
-      <c r="BB27" s="124"/>
-      <c r="BC27" s="124"/>
-      <c r="BD27" s="124"/>
-      <c r="BE27" s="124"/>
-      <c r="BF27" s="124"/>
-      <c r="BG27" s="124"/>
-      <c r="BH27" s="125"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="113"/>
+      <c r="AF27" s="113"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="113"/>
+      <c r="AI27" s="113"/>
+      <c r="AJ27" s="113"/>
+      <c r="AK27" s="113"/>
+      <c r="AL27" s="113"/>
+      <c r="AM27" s="113"/>
+      <c r="AN27" s="113"/>
+      <c r="AO27" s="113"/>
+      <c r="AP27" s="113"/>
+      <c r="AQ27" s="113"/>
+      <c r="AR27" s="113"/>
+      <c r="AS27" s="113"/>
+      <c r="AT27" s="113"/>
+      <c r="AU27" s="113"/>
+      <c r="AV27" s="113"/>
+      <c r="AW27" s="113"/>
+      <c r="AX27" s="113"/>
+      <c r="AY27" s="113"/>
+      <c r="AZ27" s="113"/>
+      <c r="BA27" s="113"/>
+      <c r="BB27" s="113"/>
+      <c r="BC27" s="113"/>
+      <c r="BD27" s="113"/>
+      <c r="BE27" s="113"/>
+      <c r="BF27" s="113"/>
+      <c r="BG27" s="113"/>
+      <c r="BH27" s="114"/>
       <c r="BI27" s="65"/>
       <c r="BJ27" s="4"/>
       <c r="BK27" s="1"/>
@@ -26229,7 +26229,7 @@
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="B28" s="67" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -34717,33 +34717,34 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AE18:AX18"/>
-    <mergeCell ref="AY17:BG17"/>
-    <mergeCell ref="AY18:BG18"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AX17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="AA8:BG8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="AA9:BG9"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:BG22"/>
+    <mergeCell ref="B27:BH27"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="AA23:BG23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="AA24:BG24"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="AA12:BG12"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AX16"/>
+    <mergeCell ref="AY16:BG16"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AA13:BG13"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -34760,34 +34761,33 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="AA12:BG12"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AX16"/>
-    <mergeCell ref="AY16:BG16"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="AA13:BG13"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="AA22:BG22"/>
-    <mergeCell ref="B27:BH27"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="S23:Z23"/>
-    <mergeCell ref="AA23:BG23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="S24:Z24"/>
-    <mergeCell ref="AA24:BG24"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="AA8:BG8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="AA9:BG9"/>
+    <mergeCell ref="AE18:AX18"/>
+    <mergeCell ref="AY17:BG17"/>
+    <mergeCell ref="AY18:BG18"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AX17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="AA18:AB18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="3">
@@ -34813,7 +34813,7 @@
   <dimension ref="A1:IY60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34823,87 +34823,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="95" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="100" t="str">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92" t="str">
         <f>クラス仕様!R1</f>
-        <v>カテゴリ管理</v>
+        <v>商品検索</v>
       </c>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="95" t="s">
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="100" t="str">
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="92" t="str">
         <f>クラス仕様!AE1</f>
         <v>カテゴリ情報出力</v>
       </c>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="95" t="s">
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="95"/>
-      <c r="AS1" s="95"/>
-      <c r="AT1" s="100" t="s">
-        <v>60</v>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="92" t="s">
+        <v>59</v>
       </c>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100"/>
-      <c r="AY1" s="100"/>
-      <c r="AZ1" s="100"/>
-      <c r="BA1" s="95" t="s">
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="95"/>
-      <c r="BC1" s="95"/>
-      <c r="BD1" s="102">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="94">
         <v>45911</v>
       </c>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -35103,78 +35103,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="95" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="95" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="100" t="str">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92" t="str">
         <f>クラス仕様!G6</f>
         <v>CategoryDTO</v>
       </c>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="95" t="s">
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="95"/>
-      <c r="AS2" s="95"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="95" t="s">
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="95"/>
-      <c r="BC2" s="95"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -35374,71 +35374,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="110" t="s">
-        <v>71</v>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="123" t="s">
+        <v>79</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="110"/>
-      <c r="BF4" s="110"/>
-      <c r="BG4" s="110"/>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="110"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123"/>
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="123"/>
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="123"/>
+      <c r="BG4" s="123"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="123"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -35638,71 +35638,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112" t="s">
-        <v>70</v>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="125" t="s">
+        <v>64</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="125"/>
+      <c r="AH5" s="125"/>
+      <c r="AI5" s="125"/>
+      <c r="AJ5" s="125"/>
+      <c r="AK5" s="125"/>
+      <c r="AL5" s="125"/>
+      <c r="AM5" s="125"/>
+      <c r="AN5" s="125"/>
+      <c r="AO5" s="125"/>
+      <c r="AP5" s="125"/>
+      <c r="AQ5" s="125"/>
+      <c r="AR5" s="125"/>
+      <c r="AS5" s="125"/>
+      <c r="AT5" s="125"/>
+      <c r="AU5" s="125"/>
+      <c r="AV5" s="125"/>
+      <c r="AW5" s="125"/>
+      <c r="AX5" s="125"/>
+      <c r="AY5" s="125"/>
+      <c r="AZ5" s="125"/>
+      <c r="BA5" s="125"/>
+      <c r="BB5" s="125"/>
+      <c r="BC5" s="125"/>
+      <c r="BD5" s="125"/>
+      <c r="BE5" s="125"/>
+      <c r="BF5" s="125"/>
+      <c r="BG5" s="125"/>
+      <c r="BH5" s="125"/>
+      <c r="BI5" s="125"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -36371,71 +36371,71 @@
       <c r="B8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85" t="s">
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="85"/>
-      <c r="BA8" s="85"/>
-      <c r="BB8" s="85"/>
-      <c r="BC8" s="85"/>
-      <c r="BD8" s="85"/>
-      <c r="BE8" s="85"/>
-      <c r="BF8" s="85"/>
-      <c r="BG8" s="85"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
       <c r="BI8" s="34"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="1"/>
@@ -36641,71 +36641,71 @@
       <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="113" t="s">
-        <v>58</v>
+      <c r="C9" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113" t="s">
-        <v>58</v>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113" t="s">
-        <v>58</v>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="114" t="s">
-        <v>58</v>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB9" s="114"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="114"/>
-      <c r="AJ9" s="114"/>
-      <c r="AK9" s="114"/>
-      <c r="AL9" s="114"/>
-      <c r="AM9" s="114"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="114"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="114"/>
-      <c r="AS9" s="114"/>
-      <c r="AT9" s="114"/>
-      <c r="AU9" s="114"/>
-      <c r="AV9" s="114"/>
-      <c r="AW9" s="114"/>
-      <c r="AX9" s="114"/>
-      <c r="AY9" s="114"/>
-      <c r="AZ9" s="114"/>
-      <c r="BA9" s="114"/>
-      <c r="BB9" s="114"/>
-      <c r="BC9" s="114"/>
-      <c r="BD9" s="114"/>
-      <c r="BE9" s="114"/>
-      <c r="BF9" s="114"/>
-      <c r="BG9" s="114"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="111"/>
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
+      <c r="BF9" s="111"/>
+      <c r="BG9" s="111"/>
       <c r="BI9" s="34"/>
       <c r="BJ9" s="3"/>
       <c r="BK9" s="1"/>
@@ -37318,71 +37318,71 @@
       <c r="B12" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85" t="s">
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85" t="s">
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85" t="s">
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="85"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="85"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="85"/>
-      <c r="AT12" s="85"/>
-      <c r="AU12" s="85"/>
-      <c r="AV12" s="85"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="85"/>
-      <c r="BA12" s="85"/>
-      <c r="BB12" s="85"/>
-      <c r="BC12" s="85"/>
-      <c r="BD12" s="85"/>
-      <c r="BE12" s="85"/>
-      <c r="BF12" s="85"/>
-      <c r="BG12" s="85"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
       <c r="BI12" s="34"/>
       <c r="BJ12" s="3"/>
       <c r="BK12" s="1"/>
@@ -37588,71 +37588,71 @@
       <c r="B13" s="57">
         <v>1</v>
       </c>
-      <c r="C13" s="113" t="s">
-        <v>53</v>
+      <c r="C13" s="110" t="s">
+        <v>52</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113" t="s">
-        <v>55</v>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110" t="s">
+        <v>54</v>
       </c>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113" t="s">
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="114" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="114"/>
-      <c r="AG13" s="114"/>
-      <c r="AH13" s="114"/>
-      <c r="AI13" s="114"/>
-      <c r="AJ13" s="114"/>
-      <c r="AK13" s="114"/>
-      <c r="AL13" s="114"/>
-      <c r="AM13" s="114"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="114"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="114"/>
-      <c r="AS13" s="114"/>
-      <c r="AT13" s="114"/>
-      <c r="AU13" s="114"/>
-      <c r="AV13" s="114"/>
-      <c r="AW13" s="114"/>
-      <c r="AX13" s="114"/>
-      <c r="AY13" s="114"/>
-      <c r="AZ13" s="114"/>
-      <c r="BA13" s="114"/>
-      <c r="BB13" s="114"/>
-      <c r="BC13" s="114"/>
-      <c r="BD13" s="114"/>
-      <c r="BE13" s="114"/>
-      <c r="BF13" s="114"/>
-      <c r="BG13" s="114"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="111"/>
+      <c r="AH13" s="111"/>
+      <c r="AI13" s="111"/>
+      <c r="AJ13" s="111"/>
+      <c r="AK13" s="111"/>
+      <c r="AL13" s="111"/>
+      <c r="AM13" s="111"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="111"/>
+      <c r="AP13" s="111"/>
+      <c r="AQ13" s="111"/>
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="111"/>
+      <c r="AT13" s="111"/>
+      <c r="AU13" s="111"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
+      <c r="AX13" s="111"/>
+      <c r="AY13" s="111"/>
+      <c r="AZ13" s="111"/>
+      <c r="BA13" s="111"/>
+      <c r="BB13" s="111"/>
+      <c r="BC13" s="111"/>
+      <c r="BD13" s="111"/>
+      <c r="BE13" s="111"/>
+      <c r="BF13" s="111"/>
+      <c r="BG13" s="111"/>
       <c r="BI13" s="34"/>
       <c r="BJ13" s="3"/>
       <c r="BK13" s="1"/>
@@ -38321,77 +38321,77 @@
       <c r="B16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="83" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="83" t="s">
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="119" t="s">
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="120" t="s">
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="AD16" s="105"/>
-      <c r="AE16" s="120" t="s">
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="104"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="104"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="104"/>
-      <c r="AW16" s="104"/>
-      <c r="AX16" s="104"/>
-      <c r="AY16" s="85" t="s">
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="76"/>
+      <c r="AU16" s="76"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AZ16" s="85"/>
-      <c r="BA16" s="85"/>
-      <c r="BB16" s="85"/>
-      <c r="BC16" s="85"/>
-      <c r="BD16" s="85"/>
-      <c r="BE16" s="85"/>
-      <c r="BF16" s="85"/>
-      <c r="BG16" s="85"/>
+      <c r="AZ16" s="89"/>
+      <c r="BA16" s="89"/>
+      <c r="BB16" s="89"/>
+      <c r="BC16" s="89"/>
+      <c r="BD16" s="89"/>
+      <c r="BE16" s="89"/>
+      <c r="BF16" s="89"/>
+      <c r="BG16" s="89"/>
       <c r="BI16" s="34"/>
     </row>
     <row r="17" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38399,77 +38399,77 @@
       <c r="B17" s="57">
         <v>1</v>
       </c>
-      <c r="C17" s="121" t="s">
-        <v>58</v>
+      <c r="C17" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="121" t="s">
-        <v>58</v>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="121" t="s">
-        <v>58</v>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="115" t="s">
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AB17" s="116"/>
-      <c r="AC17" s="115" t="s">
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AD17" s="116"/>
-      <c r="AE17" s="117" t="s">
-        <v>58</v>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="120" t="s">
+        <v>57</v>
       </c>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="89"/>
-      <c r="AP17" s="89"/>
-      <c r="AQ17" s="89"/>
-      <c r="AR17" s="89"/>
-      <c r="AS17" s="89"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="89"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="89"/>
-      <c r="AX17" s="89"/>
-      <c r="AY17" s="118" t="s">
-        <v>58</v>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="97"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="97"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="97"/>
+      <c r="AP17" s="97"/>
+      <c r="AQ17" s="97"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="97"/>
+      <c r="AV17" s="97"/>
+      <c r="AW17" s="97"/>
+      <c r="AX17" s="97"/>
+      <c r="AY17" s="115" t="s">
+        <v>57</v>
       </c>
-      <c r="AZ17" s="118"/>
-      <c r="BA17" s="118"/>
-      <c r="BB17" s="118"/>
-      <c r="BC17" s="118"/>
-      <c r="BD17" s="118"/>
-      <c r="BE17" s="118"/>
-      <c r="BF17" s="118"/>
-      <c r="BG17" s="118"/>
+      <c r="AZ17" s="115"/>
+      <c r="BA17" s="115"/>
+      <c r="BB17" s="115"/>
+      <c r="BC17" s="115"/>
+      <c r="BD17" s="115"/>
+      <c r="BE17" s="115"/>
+      <c r="BF17" s="115"/>
+      <c r="BG17" s="115"/>
       <c r="BI17" s="34"/>
       <c r="BJ17" s="3"/>
       <c r="BK17" s="1"/>
@@ -38675,77 +38675,77 @@
       <c r="B18" s="57">
         <v>2</v>
       </c>
-      <c r="C18" s="121" t="s">
-        <v>58</v>
+      <c r="C18" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="121" t="s">
-        <v>58</v>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="121" t="s">
-        <v>58</v>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="116" t="s">
+        <v>57</v>
       </c>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="115" t="s">
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="115" t="s">
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="116"/>
-      <c r="AE18" s="117" t="s">
-        <v>58</v>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="120" t="s">
+        <v>57</v>
       </c>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="118" t="s">
-        <v>58</v>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="97"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="97"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="97"/>
+      <c r="AN18" s="97"/>
+      <c r="AO18" s="97"/>
+      <c r="AP18" s="97"/>
+      <c r="AQ18" s="97"/>
+      <c r="AR18" s="97"/>
+      <c r="AS18" s="97"/>
+      <c r="AT18" s="97"/>
+      <c r="AU18" s="97"/>
+      <c r="AV18" s="97"/>
+      <c r="AW18" s="97"/>
+      <c r="AX18" s="97"/>
+      <c r="AY18" s="115" t="s">
+        <v>57</v>
       </c>
-      <c r="AZ18" s="118"/>
-      <c r="BA18" s="118"/>
-      <c r="BB18" s="118"/>
-      <c r="BC18" s="118"/>
-      <c r="BD18" s="118"/>
-      <c r="BE18" s="118"/>
-      <c r="BF18" s="118"/>
-      <c r="BG18" s="118"/>
+      <c r="AZ18" s="115"/>
+      <c r="BA18" s="115"/>
+      <c r="BB18" s="115"/>
+      <c r="BC18" s="115"/>
+      <c r="BD18" s="115"/>
+      <c r="BE18" s="115"/>
+      <c r="BF18" s="115"/>
+      <c r="BG18" s="115"/>
       <c r="BI18" s="34"/>
       <c r="BJ18" s="3"/>
       <c r="BK18" s="1"/>
@@ -39729,71 +39729,71 @@
       <c r="B22" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85" t="s">
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85" t="s">
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85" t="s">
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="85"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="85"/>
-      <c r="AY22" s="85"/>
-      <c r="AZ22" s="85"/>
-      <c r="BA22" s="85"/>
-      <c r="BB22" s="85"/>
-      <c r="BC22" s="85"/>
-      <c r="BD22" s="85"/>
-      <c r="BE22" s="85"/>
-      <c r="BF22" s="85"/>
-      <c r="BG22" s="85"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="89"/>
+      <c r="AJ22" s="89"/>
+      <c r="AK22" s="89"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="89"/>
+      <c r="AO22" s="89"/>
+      <c r="AP22" s="89"/>
+      <c r="AQ22" s="89"/>
+      <c r="AR22" s="89"/>
+      <c r="AS22" s="89"/>
+      <c r="AT22" s="89"/>
+      <c r="AU22" s="89"/>
+      <c r="AV22" s="89"/>
+      <c r="AW22" s="89"/>
+      <c r="AX22" s="89"/>
+      <c r="AY22" s="89"/>
+      <c r="AZ22" s="89"/>
+      <c r="BA22" s="89"/>
+      <c r="BB22" s="89"/>
+      <c r="BC22" s="89"/>
+      <c r="BD22" s="89"/>
+      <c r="BE22" s="89"/>
+      <c r="BF22" s="89"/>
+      <c r="BG22" s="89"/>
       <c r="BI22" s="34"/>
       <c r="BJ22" s="32"/>
       <c r="BK22" s="1"/>
@@ -39999,71 +39999,71 @@
       <c r="B23" s="57">
         <v>1</v>
       </c>
-      <c r="C23" s="113" t="s">
-        <v>58</v>
+      <c r="C23" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113" t="s">
-        <v>58</v>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113" t="s">
-        <v>58</v>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="114" t="s">
-        <v>58</v>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="110"/>
+      <c r="X23" s="110"/>
+      <c r="Y23" s="110"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB23" s="114"/>
-      <c r="AC23" s="114"/>
-      <c r="AD23" s="114"/>
-      <c r="AE23" s="114"/>
-      <c r="AF23" s="114"/>
-      <c r="AG23" s="114"/>
-      <c r="AH23" s="114"/>
-      <c r="AI23" s="114"/>
-      <c r="AJ23" s="114"/>
-      <c r="AK23" s="114"/>
-      <c r="AL23" s="114"/>
-      <c r="AM23" s="114"/>
-      <c r="AN23" s="114"/>
-      <c r="AO23" s="114"/>
-      <c r="AP23" s="114"/>
-      <c r="AQ23" s="114"/>
-      <c r="AR23" s="114"/>
-      <c r="AS23" s="114"/>
-      <c r="AT23" s="114"/>
-      <c r="AU23" s="114"/>
-      <c r="AV23" s="114"/>
-      <c r="AW23" s="114"/>
-      <c r="AX23" s="114"/>
-      <c r="AY23" s="114"/>
-      <c r="AZ23" s="114"/>
-      <c r="BA23" s="114"/>
-      <c r="BB23" s="114"/>
-      <c r="BC23" s="114"/>
-      <c r="BD23" s="114"/>
-      <c r="BE23" s="114"/>
-      <c r="BF23" s="114"/>
-      <c r="BG23" s="114"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="111"/>
+      <c r="AG23" s="111"/>
+      <c r="AH23" s="111"/>
+      <c r="AI23" s="111"/>
+      <c r="AJ23" s="111"/>
+      <c r="AK23" s="111"/>
+      <c r="AL23" s="111"/>
+      <c r="AM23" s="111"/>
+      <c r="AN23" s="111"/>
+      <c r="AO23" s="111"/>
+      <c r="AP23" s="111"/>
+      <c r="AQ23" s="111"/>
+      <c r="AR23" s="111"/>
+      <c r="AS23" s="111"/>
+      <c r="AT23" s="111"/>
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="111"/>
+      <c r="AW23" s="111"/>
+      <c r="AX23" s="111"/>
+      <c r="AY23" s="111"/>
+      <c r="AZ23" s="111"/>
+      <c r="BA23" s="111"/>
+      <c r="BB23" s="111"/>
+      <c r="BC23" s="111"/>
+      <c r="BD23" s="111"/>
+      <c r="BE23" s="111"/>
+      <c r="BF23" s="111"/>
+      <c r="BG23" s="111"/>
       <c r="BI23" s="34"/>
       <c r="BJ23" s="3"/>
       <c r="BK23" s="1"/>
@@ -40269,71 +40269,71 @@
       <c r="B24" s="57">
         <v>2</v>
       </c>
-      <c r="C24" s="113" t="s">
-        <v>58</v>
+      <c r="C24" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113" t="s">
-        <v>58</v>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113" t="s">
-        <v>58</v>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110" t="s">
+        <v>57</v>
       </c>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="114" t="s">
-        <v>58</v>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="111" t="s">
+        <v>57</v>
       </c>
-      <c r="AB24" s="114"/>
-      <c r="AC24" s="114"/>
-      <c r="AD24" s="114"/>
-      <c r="AE24" s="114"/>
-      <c r="AF24" s="114"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="114"/>
-      <c r="AI24" s="114"/>
-      <c r="AJ24" s="114"/>
-      <c r="AK24" s="114"/>
-      <c r="AL24" s="114"/>
-      <c r="AM24" s="114"/>
-      <c r="AN24" s="114"/>
-      <c r="AO24" s="114"/>
-      <c r="AP24" s="114"/>
-      <c r="AQ24" s="114"/>
-      <c r="AR24" s="114"/>
-      <c r="AS24" s="114"/>
-      <c r="AT24" s="114"/>
-      <c r="AU24" s="114"/>
-      <c r="AV24" s="114"/>
-      <c r="AW24" s="114"/>
-      <c r="AX24" s="114"/>
-      <c r="AY24" s="114"/>
-      <c r="AZ24" s="114"/>
-      <c r="BA24" s="114"/>
-      <c r="BB24" s="114"/>
-      <c r="BC24" s="114"/>
-      <c r="BD24" s="114"/>
-      <c r="BE24" s="114"/>
-      <c r="BF24" s="114"/>
-      <c r="BG24" s="114"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="111"/>
+      <c r="AJ24" s="111"/>
+      <c r="AK24" s="111"/>
+      <c r="AL24" s="111"/>
+      <c r="AM24" s="111"/>
+      <c r="AN24" s="111"/>
+      <c r="AO24" s="111"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="111"/>
+      <c r="AR24" s="111"/>
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
+      <c r="AX24" s="111"/>
+      <c r="AY24" s="111"/>
+      <c r="AZ24" s="111"/>
+      <c r="BA24" s="111"/>
+      <c r="BB24" s="111"/>
+      <c r="BC24" s="111"/>
+      <c r="BD24" s="111"/>
+      <c r="BE24" s="111"/>
+      <c r="BF24" s="111"/>
+      <c r="BG24" s="111"/>
       <c r="BI24" s="34"/>
       <c r="BJ24" s="3"/>
       <c r="BK24" s="1"/>
@@ -41003,67 +41003,67 @@
     </row>
     <row r="27" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="124"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="124"/>
-      <c r="S27" s="124"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124"/>
-      <c r="Z27" s="124"/>
-      <c r="AA27" s="124"/>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="124"/>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="124"/>
-      <c r="AJ27" s="124"/>
-      <c r="AK27" s="124"/>
-      <c r="AL27" s="124"/>
-      <c r="AM27" s="124"/>
-      <c r="AN27" s="124"/>
-      <c r="AO27" s="124"/>
-      <c r="AP27" s="124"/>
-      <c r="AQ27" s="124"/>
-      <c r="AR27" s="124"/>
-      <c r="AS27" s="124"/>
-      <c r="AT27" s="124"/>
-      <c r="AU27" s="124"/>
-      <c r="AV27" s="124"/>
-      <c r="AW27" s="124"/>
-      <c r="AX27" s="124"/>
-      <c r="AY27" s="124"/>
-      <c r="AZ27" s="124"/>
-      <c r="BA27" s="124"/>
-      <c r="BB27" s="124"/>
-      <c r="BC27" s="124"/>
-      <c r="BD27" s="124"/>
-      <c r="BE27" s="124"/>
-      <c r="BF27" s="124"/>
-      <c r="BG27" s="124"/>
-      <c r="BH27" s="125"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="113"/>
+      <c r="AF27" s="113"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="113"/>
+      <c r="AI27" s="113"/>
+      <c r="AJ27" s="113"/>
+      <c r="AK27" s="113"/>
+      <c r="AL27" s="113"/>
+      <c r="AM27" s="113"/>
+      <c r="AN27" s="113"/>
+      <c r="AO27" s="113"/>
+      <c r="AP27" s="113"/>
+      <c r="AQ27" s="113"/>
+      <c r="AR27" s="113"/>
+      <c r="AS27" s="113"/>
+      <c r="AT27" s="113"/>
+      <c r="AU27" s="113"/>
+      <c r="AV27" s="113"/>
+      <c r="AW27" s="113"/>
+      <c r="AX27" s="113"/>
+      <c r="AY27" s="113"/>
+      <c r="AZ27" s="113"/>
+      <c r="BA27" s="113"/>
+      <c r="BB27" s="113"/>
+      <c r="BC27" s="113"/>
+      <c r="BD27" s="113"/>
+      <c r="BE27" s="113"/>
+      <c r="BF27" s="113"/>
+      <c r="BG27" s="113"/>
+      <c r="BH27" s="114"/>
       <c r="BI27" s="65"/>
       <c r="BJ27" s="4"/>
       <c r="BK27" s="1"/>
@@ -41267,7 +41267,7 @@
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="B28" s="67" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -49755,11 +49755,56 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="AA24:BG24"/>
+    <mergeCell ref="B27:BH27"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="AA23:BG23"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AX18"/>
+    <mergeCell ref="AY18:BG18"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:BG22"/>
+    <mergeCell ref="AE16:AX16"/>
+    <mergeCell ref="AY16:BG16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AX17"/>
+    <mergeCell ref="AY17:BG17"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="AA12:BG12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AA13:BG13"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="AA9:BG9"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="AA8:BG8"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -49776,56 +49821,11 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="AA9:BG9"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="AA8:BG8"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="AA12:BG12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="AA13:BG13"/>
-    <mergeCell ref="AE16:AX16"/>
-    <mergeCell ref="AY16:BG16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AX17"/>
-    <mergeCell ref="AY17:BG17"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="S23:Z23"/>
-    <mergeCell ref="AA23:BG23"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AX18"/>
-    <mergeCell ref="AY18:BG18"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="AA22:BG22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="S24:Z24"/>
-    <mergeCell ref="AA24:BG24"/>
-    <mergeCell ref="B27:BH27"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="3">
@@ -49847,9 +49847,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49985,19 +49988,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -50021,9 +50020,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>